--- a/startup/xlsx/glancing_angle.xlsx
+++ b/startup/xlsx/glancing_angle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="set1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="set2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="set3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ga1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ga2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ga3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Version history" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -1048,9 +1048,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1475280</xdr:colOff>
+      <xdr:colOff>1474920</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1059,8 +1059,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3240360" y="4295160"/>
-          <a:ext cx="7820640" cy="2243520"/>
+          <a:off x="3241800" y="4295160"/>
+          <a:ext cx="7822800" cy="2243160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1325,9 +1325,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>166680</xdr:colOff>
+      <xdr:colOff>166320</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1341,7 +1341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2740680" cy="2528640"/>
+          <a:ext cx="2741760" cy="2528280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1367,9 +1367,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1475280</xdr:colOff>
+      <xdr:colOff>1474920</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1378,733 +1378,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3240360" y="4295160"/>
-          <a:ext cx="7820640" cy="2243520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="73080">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>Instructio</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>ns:</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>1. Add the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>names of all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>team </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>members to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the green </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>box in row 1</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>2. Default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>values for </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parameters </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>go in line 6</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>3. Sample-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>specific </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parameters </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>are entered </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>in rows 7+</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>4. Default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>values from </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>line 6 will be </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>used for all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>cells left </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>rows 7+</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>5. Specify </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>pitch and y </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>motor </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>positions </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>and the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>method for </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>finding them </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>in columns </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>R, S, T</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>6. If column </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>R is </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>“Manual”, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>columns S </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>and T </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>must</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>be filled in</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>7. Specify </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>detector </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>position in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>column U, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>means to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>not move</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>detector</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>8. Do not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>add rows </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>above row 7</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>9. Do not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>add </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>columns </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>before </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>column AE</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>166680</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4181760"/>
-          <a:ext cx="2740680" cy="2528640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1475280</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3240360" y="4295160"/>
-          <a:ext cx="7820640" cy="2243520"/>
+          <a:off x="3241800" y="4295160"/>
+          <a:ext cx="7822800" cy="2243160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2369,9 +1644,328 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>166680</xdr:colOff>
+      <xdr:colOff>166320</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4181760"/>
+          <a:ext cx="2741760" cy="2528280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1474920</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3241800" y="4295160"/>
+          <a:ext cx="7822800" cy="2243160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="73080">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>Instructions:</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>2. Default values for all parameters go in line 6</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>5. Specify pitch and y motor positions and the method for finding them in columns R, S, T</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>6. If column R is “Manual”, columns S and T </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>must</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t> be filled in</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>7. Specify detector position in column U, blank means to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>not move</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t> detector</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>8. Do not add rows above row 7</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>9. Do not add columns before column AE</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>166320</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2385,7 +1979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2740680" cy="2528640"/>
+          <a:ext cx="2741760" cy="2528280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2407,7 +2001,7 @@
   </sheetPr>
   <dimension ref="B1:AD38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -2415,7 +2009,7 @@
       <selection pane="bottomRight" activeCell="S15" activeCellId="0" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3171,7 +2765,7 @@
       <selection pane="bottomRight" activeCell="S15" activeCellId="0" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3902,7 +3496,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3919,7 +3513,7 @@
   </sheetPr>
   <dimension ref="B1:AD38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -3927,7 +3521,7 @@
       <selection pane="bottomRight" activeCell="S15" activeCellId="0" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4658,7 +4252,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4679,7 +4273,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>

--- a/startup/xlsx/glancing_angle.xlsx
+++ b/startup/xlsx/glancing_angle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ga1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1048,9 +1048,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1474920</xdr:colOff>
+      <xdr:colOff>1474560</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1059,8 +1059,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3241800" y="4295160"/>
-          <a:ext cx="7822800" cy="2243160"/>
+          <a:off x="3242520" y="4295160"/>
+          <a:ext cx="7823520" cy="2242800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1325,9 +1325,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>166320</xdr:colOff>
+      <xdr:colOff>165960</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1341,7 +1341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2741760" cy="2528280"/>
+          <a:ext cx="2742120" cy="2527920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1367,9 +1367,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1474920</xdr:colOff>
+      <xdr:colOff>1474560</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1378,8 +1378,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3241800" y="4295160"/>
-          <a:ext cx="7822800" cy="2243160"/>
+          <a:off x="3242520" y="4295160"/>
+          <a:ext cx="7823520" cy="2242800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1644,9 +1644,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>166320</xdr:colOff>
+      <xdr:colOff>165960</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1660,7 +1660,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2741760" cy="2528280"/>
+          <a:ext cx="2742120" cy="2527920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1686,9 +1686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1474920</xdr:colOff>
+      <xdr:colOff>1474560</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1697,8 +1697,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3241800" y="4295160"/>
-          <a:ext cx="7822800" cy="2243160"/>
+          <a:off x="3242520" y="4295160"/>
+          <a:ext cx="7823520" cy="2242800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1963,9 +1963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>166320</xdr:colOff>
+      <xdr:colOff>165960</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1979,7 +1979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2741760" cy="2528280"/>
+          <a:ext cx="2742120" cy="2527920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2001,15 +2001,15 @@
   </sheetPr>
   <dimension ref="B1:AD38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S15" activeCellId="0" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="U6" activeCellId="0" sqref="R6:U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2026,9 +2026,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2680,7 +2680,755 @@
     <mergeCell ref="V4:AA4"/>
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
-  <dataValidations count="14">
+  <dataValidations count="12">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA14" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
+      <formula1>"K,L3,L2,L1"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+      <formula1>"unfocused,focused"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
+      <formula1>1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U14" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:AD38"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="U6" activeCellId="0" sqref="R6:U14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1"/>
+      <c r="C4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" s="31" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="45"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="48" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="49" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="49" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="49" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="49" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="50" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="59"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="64"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="59"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="64"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="59"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="64"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="59"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="64"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="59"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="64"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="52" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="59"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="64"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="52" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="59"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="64"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="59"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="64"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="52"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="52"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="52"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="52"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="52"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="52"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="52"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="52"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="52"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="52"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="52"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="52"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="52"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="52"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="52"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="52"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="52"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="52"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="52"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="52"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="52"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="52"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="52"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+  </mergeCells>
+  <dataValidations count="13">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -2729,18 +3477,14 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:U14 S7:T14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:T6" type="none">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2750,7 +3494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2758,14 +3502,14 @@
   <dimension ref="B1:AD38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S15" activeCellId="0" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="U6" activeCellId="0" sqref="R6:U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2782,9 +3526,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3436,7 +4180,7 @@
     <mergeCell ref="V4:AA4"/>
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
-  <dataValidations count="14">
+  <dataValidations count="12">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -3469,10 +4213,6 @@
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
-      <formula1>"Manual,Automatic"</formula1>
-      <formula2>150</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
       <formula1>0</formula1>
       <formula2>10</formula2>
@@ -3485,769 +4225,9 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:U14 S7:T14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:T6" type="none">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:AD38"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S15" activeCellId="0" sqref="S15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="29.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
-      <c r="AA2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
-      <c r="AA3" s="11"/>
-    </row>
-    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB5" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC5" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD5" s="30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" s="31" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="S6" s="45"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="48" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="W6" s="49" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X6" s="49" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Y6" s="49" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="49" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="50" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="59"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="64"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="59"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="64"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="52" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="59"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="64"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="52" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="59"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="64"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="52" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="59"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="64"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="52" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="59"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="64"/>
-    </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="52" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="59"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="64"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="52" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="59"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="64"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="52"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="52"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="52"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="52"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="52"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="52"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="52"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="52"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="52"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="52"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="52"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="52"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="52"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="52"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="52"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="52"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="52"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="52"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="52"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="52"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="52"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="52"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="52"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-  </mergeCells>
-  <dataValidations count="14">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA14" type="list">
-      <formula1>"True,False"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
-      <formula1>"K,L3,L2,L1"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
-      <formula1>"unfocused,focused"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
-      <formula1>0</formula1>
-      <formula2>1000</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
-      <formula1>"Yes,No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
-      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
-      <formula1>1</formula1>
-      <formula2>8</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
-      <formula1>"Manual,Automatic"</formula1>
-      <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
-      <formula1>0</formula1>
-      <formula2>10</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:U14 S7:T14" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:T6" type="none">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4270,12 +4250,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="R6:U14 A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
   </cols>
   <sheetData>

--- a/startup/xlsx/glancing_angle.xlsx
+++ b/startup/xlsx/glancing_angle.xlsx
@@ -131,15 +131,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="68">
   <si>
     <t xml:space="preserve">Glancing angle</t>
   </si>
   <si>
     <t xml:space="preserve">Experimenters:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version: 6</t>
   </si>
   <si>
     <t xml:space="preserve">Change edge at start?</t>
@@ -337,6 +334,9 @@
     <t xml:space="preserve">Automatic</t>
   </si>
   <si>
+    <t xml:space="preserve">Current</t>
+  </si>
+  <si>
     <t xml:space="preserve">Version</t>
   </si>
   <si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t xml:space="preserve">Added motor grid automation, 3 empty tabs in each template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added LakeShore 331</t>
   </si>
 </sst>
 </file>
@@ -1048,9 +1051,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1474560</xdr:colOff>
+      <xdr:colOff>1473840</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1059,8 +1062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3242520" y="4295160"/>
-          <a:ext cx="7823520" cy="2242800"/>
+          <a:off x="3243600" y="4295160"/>
+          <a:ext cx="7825680" cy="2242080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1325,9 +1328,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>165960</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1341,7 +1344,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2742120" cy="2527920"/>
+          <a:ext cx="2742480" cy="2527200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1367,9 +1370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1474560</xdr:colOff>
+      <xdr:colOff>1473840</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1378,8 +1381,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3242520" y="4295160"/>
-          <a:ext cx="7823520" cy="2242800"/>
+          <a:off x="3243600" y="4295160"/>
+          <a:ext cx="7825680" cy="2242080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1644,9 +1647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>165960</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1660,7 +1663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2742120" cy="2527920"/>
+          <a:ext cx="2742480" cy="2527200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1686,9 +1689,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1474560</xdr:colOff>
+      <xdr:colOff>1473840</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1697,8 +1700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3242520" y="4295160"/>
-          <a:ext cx="7823520" cy="2242800"/>
+          <a:off x="3243600" y="4295160"/>
+          <a:ext cx="7825680" cy="2242080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1963,9 +1966,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>165960</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1979,7 +1982,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2742120" cy="2527920"/>
+          <a:ext cx="2742480" cy="2527200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2006,10 +2009,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U6" activeCellId="0" sqref="R6:U14"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2064,29 +2067,30 @@
       <c r="AA1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
-        <v>2</v>
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" s="10"/>
       <c r="Q2" s="10"/>
@@ -2126,16 +2130,16 @@
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -2143,23 +2147,23 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
       <c r="V4" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
@@ -2167,151 +2171,151 @@
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
       <c r="AB4" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC4" s="18"/>
       <c r="AD4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="I5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="J5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="K5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="L5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="M5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="N5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="O5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="P5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="Q5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="R5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="28" t="s">
+      <c r="S5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="T5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="U5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="V5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="20" t="s">
+      <c r="W5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="19" t="s">
+      <c r="X5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="19" t="s">
+      <c r="Y5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="19" t="s">
+      <c r="Z5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="AA5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AB5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="23" t="s">
+      <c r="AC5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AC5" s="30" t="s">
+      <c r="AD5" s="30" t="s">
         <v>43</v>
-      </c>
-      <c r="AD5" s="30" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" s="31" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>46</v>
       </c>
       <c r="E6" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="37" t="s">
+      <c r="I6" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="J6" s="39" t="s">
         <v>49</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>50</v>
       </c>
       <c r="K6" s="39" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="N6" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="O6" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="P6" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="Q6" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="R6" s="46" t="s">
         <v>56</v>
-      </c>
-      <c r="R6" s="46" t="s">
-        <v>57</v>
       </c>
       <c r="S6" s="45"/>
       <c r="T6" s="47"/>
@@ -2349,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="12"/>
@@ -2380,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="54"/>
       <c r="E8" s="12"/>
@@ -2411,7 +2415,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="12"/>
@@ -2442,7 +2446,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="12"/>
@@ -2473,7 +2477,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="12"/>
@@ -2504,7 +2508,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="12"/>
@@ -2535,7 +2539,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="12"/>
@@ -2566,7 +2570,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="12"/>
@@ -2754,10 +2758,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U6" activeCellId="0" sqref="R6:U14"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2812,29 +2816,30 @@
       <c r="AA1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
-        <v>2</v>
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" s="10"/>
       <c r="Q2" s="10"/>
@@ -2874,16 +2879,16 @@
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -2891,23 +2896,23 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
       <c r="V4" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
@@ -2915,151 +2920,151 @@
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
       <c r="AB4" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC4" s="18"/>
       <c r="AD4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="I5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="J5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="K5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="L5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="M5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="N5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="O5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="P5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="Q5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="R5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="28" t="s">
+      <c r="S5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="T5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="U5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="V5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="20" t="s">
+      <c r="W5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="19" t="s">
+      <c r="X5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="19" t="s">
+      <c r="Y5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="19" t="s">
+      <c r="Z5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="AA5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AB5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="23" t="s">
+      <c r="AC5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AC5" s="30" t="s">
+      <c r="AD5" s="30" t="s">
         <v>43</v>
-      </c>
-      <c r="AD5" s="30" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" s="31" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>46</v>
       </c>
       <c r="E6" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="37" t="s">
+      <c r="I6" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="J6" s="39" t="s">
         <v>49</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>50</v>
       </c>
       <c r="K6" s="39" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="N6" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="O6" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="P6" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="Q6" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="R6" s="46" t="s">
         <v>56</v>
-      </c>
-      <c r="R6" s="46" t="s">
-        <v>57</v>
       </c>
       <c r="S6" s="45"/>
       <c r="T6" s="47"/>
@@ -3097,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="12"/>
@@ -3128,7 +3133,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="54"/>
       <c r="E8" s="12"/>
@@ -3159,7 +3164,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="12"/>
@@ -3190,7 +3195,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="12"/>
@@ -3221,7 +3226,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="12"/>
@@ -3252,7 +3257,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="12"/>
@@ -3283,7 +3288,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="12"/>
@@ -3314,7 +3319,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="12"/>
@@ -3461,10 +3466,6 @@
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
-      <formula1>"Manual,Automatic"</formula1>
-      <formula2>150</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
       <formula1>0</formula1>
       <formula2>10</formula2>
@@ -3476,6 +3477,10 @@
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
+      <formula1>"Manual,Automatic"</formula1>
+      <formula2>150</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U14" type="none">
       <formula1>10</formula1>
@@ -3506,10 +3511,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U6" activeCellId="0" sqref="R6:U14"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3564,29 +3569,30 @@
       <c r="AA1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
-        <v>2</v>
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" s="10"/>
       <c r="Q2" s="10"/>
@@ -3626,16 +3632,16 @@
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -3643,23 +3649,23 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
       <c r="V4" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
@@ -3667,151 +3673,151 @@
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
       <c r="AB4" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC4" s="18"/>
       <c r="AD4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="G5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="I5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="J5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="K5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="L5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="M5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="N5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="O5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="P5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="Q5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="R5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="28" t="s">
+      <c r="S5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="T5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="U5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="V5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="20" t="s">
+      <c r="W5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="19" t="s">
+      <c r="X5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="19" t="s">
+      <c r="Y5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="19" t="s">
+      <c r="Z5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="AA5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AB5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="23" t="s">
+      <c r="AC5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AC5" s="30" t="s">
+      <c r="AD5" s="30" t="s">
         <v>43</v>
-      </c>
-      <c r="AD5" s="30" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" s="31" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>46</v>
       </c>
       <c r="E6" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="37" t="s">
+      <c r="I6" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="J6" s="39" t="s">
         <v>49</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>50</v>
       </c>
       <c r="K6" s="39" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="N6" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="O6" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="P6" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="Q6" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="R6" s="46" t="s">
         <v>56</v>
-      </c>
-      <c r="R6" s="46" t="s">
-        <v>57</v>
       </c>
       <c r="S6" s="45"/>
       <c r="T6" s="47"/>
@@ -3849,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="12"/>
@@ -3880,7 +3886,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="54"/>
       <c r="E8" s="12"/>
@@ -3911,7 +3917,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="12"/>
@@ -3942,7 +3948,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="12"/>
@@ -3973,7 +3979,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="12"/>
@@ -4004,7 +4010,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="12"/>
@@ -4035,7 +4041,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="12"/>
@@ -4066,7 +4072,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="12"/>
@@ -4247,13 +4253,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="R6:U14 A8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -4261,66 +4267,95 @@
   <sheetData>
     <row r="1" s="65" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B2" s="65"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="30" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" s="65"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="30"/>
+      <c r="B4" s="65"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="65" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/startup/xlsx/glancing_angle.xlsx
+++ b/startup/xlsx/glancing_angle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ga1" sheetId="1" state="visible" r:id="rId2"/>
@@ -371,9 +371,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -724,7 +725,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -732,7 +733,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -836,7 +837,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -848,7 +849,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -896,15 +897,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -916,7 +917,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -924,7 +925,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -948,15 +949,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1051,9 +1052,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1473840</xdr:colOff>
+      <xdr:colOff>1473480</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1062,8 +1063,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3243600" y="4295160"/>
-          <a:ext cx="7825680" cy="2242080"/>
+          <a:off x="3244320" y="4295160"/>
+          <a:ext cx="7826400" cy="2241720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1328,9 +1329,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>165240</xdr:colOff>
+      <xdr:colOff>164880</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1344,7 +1345,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2742480" cy="2527200"/>
+          <a:ext cx="2742840" cy="2526840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1370,9 +1371,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1473840</xdr:colOff>
+      <xdr:colOff>1473480</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1381,8 +1382,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3243600" y="4295160"/>
-          <a:ext cx="7825680" cy="2242080"/>
+          <a:off x="3244320" y="4295160"/>
+          <a:ext cx="7826400" cy="2241720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1647,9 +1648,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>165240</xdr:colOff>
+      <xdr:colOff>164880</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1663,7 +1664,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2742480" cy="2527200"/>
+          <a:ext cx="2742840" cy="2526840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1689,9 +1690,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1473840</xdr:colOff>
+      <xdr:colOff>1473480</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1700,8 +1701,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3243600" y="4295160"/>
-          <a:ext cx="7825680" cy="2242080"/>
+          <a:off x="3244320" y="4295160"/>
+          <a:ext cx="7826400" cy="2241720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1966,9 +1967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>165240</xdr:colOff>
+      <xdr:colOff>164880</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1982,7 +1983,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2742480" cy="2527200"/>
+          <a:ext cx="2742840" cy="2526840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2004,15 +2005,15 @@
   </sheetPr>
   <dimension ref="B1:AD38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2336,9 +2337,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="49" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="Z6" s="49" t="b">
+        <v>1</v>
       </c>
       <c r="AA6" s="50" t="n">
         <f aca="false">FALSE()</f>
@@ -2754,14 +2754,14 @@
   <dimension ref="B1:AD38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3085,9 +3085,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="49" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="Z6" s="49" t="b">
+        <v>1</v>
       </c>
       <c r="AA6" s="50" t="n">
         <f aca="false">FALSE()</f>
@@ -3506,15 +3505,15 @@
   </sheetPr>
   <dimension ref="B1:AD38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3838,9 +3837,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="49" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="Z6" s="49" t="b">
+        <v>1</v>
       </c>
       <c r="AA6" s="50" t="n">
         <f aca="false">FALSE()</f>
@@ -4259,7 +4257,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>

--- a/startup/xlsx/glancing_angle.xlsx
+++ b/startup/xlsx/glancing_angle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ga1" sheetId="1" state="visible" r:id="rId2"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="69">
   <si>
     <t xml:space="preserve">Glancing angle</t>
   </si>
@@ -154,6 +154,9 @@
     <t xml:space="preserve">Add element to filename?</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of repetitions</t>
+  </si>
+  <si>
     <t xml:space="preserve">File name</t>
   </si>
   <si>
@@ -185,9 +188,6 @@
   </si>
   <si>
     <t xml:space="preserve">Filename</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of repetitions</t>
   </si>
   <si>
     <t xml:space="preserve">Starting scan number</t>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t xml:space="preserve">Added LakeShore 331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loop over entire macro</t>
   </si>
 </sst>
 </file>
@@ -745,12 +748,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1052,9 +1055,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1473480</xdr:colOff>
+      <xdr:colOff>1472760</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1063,8 +1066,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3244320" y="4295160"/>
-          <a:ext cx="7826400" cy="2241720"/>
+          <a:off x="3246120" y="4295160"/>
+          <a:ext cx="7829640" cy="2241000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1329,9 +1332,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>164880</xdr:colOff>
+      <xdr:colOff>164160</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1345,7 +1348,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2742840" cy="2526840"/>
+          <a:ext cx="2743920" cy="2526120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1371,9 +1374,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1473480</xdr:colOff>
+      <xdr:colOff>1472760</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1382,8 +1385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3244320" y="4295160"/>
-          <a:ext cx="7826400" cy="2241720"/>
+          <a:off x="3246120" y="4295160"/>
+          <a:ext cx="7829640" cy="2241000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1648,9 +1651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>164880</xdr:colOff>
+      <xdr:colOff>164160</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1664,7 +1667,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2742840" cy="2526840"/>
+          <a:ext cx="2743920" cy="2526120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1690,9 +1693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1473480</xdr:colOff>
+      <xdr:colOff>1472760</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1701,8 +1704,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3244320" y="4295160"/>
-          <a:ext cx="7826400" cy="2241720"/>
+          <a:off x="3246120" y="4295160"/>
+          <a:ext cx="7829640" cy="2241000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1967,9 +1970,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>164880</xdr:colOff>
+      <xdr:colOff>164160</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1983,7 +1986,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2742840" cy="2526840"/>
+          <a:ext cx="2743920" cy="2526120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2005,15 +2008,15 @@
   </sheetPr>
   <dimension ref="B1:AD38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
+      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2070,7 +2073,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 8</v>
+        <v>Version: 9</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -2093,54 +2096,60 @@
       <c r="L2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="11"/>
+      <c r="M2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="10"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
-      <c r="AA2" s="11"/>
+      <c r="AA2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="11"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="10"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
-      <c r="AA3" s="11"/>
+      <c r="AA3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -2148,23 +2157,23 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
       <c r="V4" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
@@ -2172,23 +2181,23 @@
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
       <c r="AB4" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC4" s="18"/>
       <c r="AD4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>19</v>
@@ -2337,7 +2346,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="49" t="b">
+      <c r="Z6" s="49" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AA6" s="50" t="n">
@@ -2369,7 +2379,7 @@
       <c r="O7" s="58"/>
       <c r="P7" s="31"/>
       <c r="Q7" s="59"/>
-      <c r="T7" s="10"/>
+      <c r="T7" s="11"/>
       <c r="U7" s="60"/>
       <c r="V7" s="61"/>
       <c r="W7" s="62"/>
@@ -2400,7 +2410,7 @@
       <c r="O8" s="58"/>
       <c r="P8" s="31"/>
       <c r="Q8" s="59"/>
-      <c r="T8" s="10"/>
+      <c r="T8" s="11"/>
       <c r="U8" s="60"/>
       <c r="V8" s="61"/>
       <c r="W8" s="62"/>
@@ -2431,7 +2441,7 @@
       <c r="O9" s="58"/>
       <c r="P9" s="31"/>
       <c r="Q9" s="59"/>
-      <c r="T9" s="10"/>
+      <c r="T9" s="11"/>
       <c r="U9" s="60"/>
       <c r="V9" s="61"/>
       <c r="W9" s="62"/>
@@ -2462,7 +2472,7 @@
       <c r="O10" s="58"/>
       <c r="P10" s="31"/>
       <c r="Q10" s="59"/>
-      <c r="T10" s="10"/>
+      <c r="T10" s="11"/>
       <c r="U10" s="60"/>
       <c r="V10" s="61"/>
       <c r="W10" s="62"/>
@@ -2493,7 +2503,7 @@
       <c r="O11" s="58"/>
       <c r="P11" s="31"/>
       <c r="Q11" s="59"/>
-      <c r="T11" s="10"/>
+      <c r="T11" s="11"/>
       <c r="U11" s="60"/>
       <c r="V11" s="61"/>
       <c r="W11" s="62"/>
@@ -2524,7 +2534,7 @@
       <c r="O12" s="58"/>
       <c r="P12" s="31"/>
       <c r="Q12" s="59"/>
-      <c r="T12" s="10"/>
+      <c r="T12" s="11"/>
       <c r="U12" s="60"/>
       <c r="V12" s="61"/>
       <c r="W12" s="62"/>
@@ -2555,7 +2565,7 @@
       <c r="O13" s="58"/>
       <c r="P13" s="31"/>
       <c r="Q13" s="59"/>
-      <c r="T13" s="10"/>
+      <c r="T13" s="11"/>
       <c r="U13" s="60"/>
       <c r="V13" s="61"/>
       <c r="W13" s="62"/>
@@ -2586,755 +2596,7 @@
       <c r="O14" s="58"/>
       <c r="P14" s="31"/>
       <c r="Q14" s="59"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="64"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="52"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="52"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="52"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="52"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="52"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="52"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="52"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="52"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="52"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="52"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="52"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="52"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="52"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="52"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="52"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="52"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="52"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="52"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="52"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="52"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="52"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="52"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="52"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-  </mergeCells>
-  <dataValidations count="12">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA14" type="list">
-      <formula1>"True,False"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
-      <formula1>"K,L3,L2,L1"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
-      <formula1>"unfocused,focused"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
-      <formula1>0</formula1>
-      <formula2>1000</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
-      <formula1>"Yes,No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
-      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
-      <formula1>1</formula1>
-      <formula2>8</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
-      <formula1>0</formula1>
-      <formula2>10</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
-      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U14" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:AD38"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="29.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="str">
-        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 8</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
-      <c r="AA2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
-      <c r="AA3" s="11"/>
-    </row>
-    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
-      <c r="C4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="W5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB5" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC5" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD5" s="30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" s="31" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="S6" s="45"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="48" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="W6" s="49" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X6" s="49" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Y6" s="49" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="50" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="59"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="64"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="59"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="64"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="52" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="59"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="64"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="52" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="59"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="64"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="52" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="59"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="64"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="52" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="59"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="64"/>
-    </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="52" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="59"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="64"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="52" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="59"/>
-      <c r="T14" s="10"/>
+      <c r="T14" s="11"/>
       <c r="U14" s="60"/>
       <c r="V14" s="61"/>
       <c r="W14" s="62"/>
@@ -3477,18 +2739,18 @@
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
-      <formula1>"Manual,Automatic"</formula1>
-      <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3498,22 +2760,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B1:AD38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
+      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3570,7 +2832,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 8</v>
+        <v>Version: 9</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -3593,54 +2855,60 @@
       <c r="L2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="11"/>
+      <c r="M2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="10"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
-      <c r="AA2" s="11"/>
+      <c r="AA2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="11"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="10"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
-      <c r="AA3" s="11"/>
+      <c r="AA3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -3648,23 +2916,23 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
       <c r="V4" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
@@ -3672,23 +2940,23 @@
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
       <c r="AB4" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC4" s="18"/>
       <c r="AD4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>19</v>
@@ -3837,7 +3105,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="49" t="b">
+      <c r="Z6" s="49" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="AA6" s="50" t="n">
@@ -3869,7 +3138,7 @@
       <c r="O7" s="58"/>
       <c r="P7" s="31"/>
       <c r="Q7" s="59"/>
-      <c r="T7" s="10"/>
+      <c r="T7" s="11"/>
       <c r="U7" s="60"/>
       <c r="V7" s="61"/>
       <c r="W7" s="62"/>
@@ -3900,7 +3169,7 @@
       <c r="O8" s="58"/>
       <c r="P8" s="31"/>
       <c r="Q8" s="59"/>
-      <c r="T8" s="10"/>
+      <c r="T8" s="11"/>
       <c r="U8" s="60"/>
       <c r="V8" s="61"/>
       <c r="W8" s="62"/>
@@ -3931,7 +3200,7 @@
       <c r="O9" s="58"/>
       <c r="P9" s="31"/>
       <c r="Q9" s="59"/>
-      <c r="T9" s="10"/>
+      <c r="T9" s="11"/>
       <c r="U9" s="60"/>
       <c r="V9" s="61"/>
       <c r="W9" s="62"/>
@@ -3962,7 +3231,7 @@
       <c r="O10" s="58"/>
       <c r="P10" s="31"/>
       <c r="Q10" s="59"/>
-      <c r="T10" s="10"/>
+      <c r="T10" s="11"/>
       <c r="U10" s="60"/>
       <c r="V10" s="61"/>
       <c r="W10" s="62"/>
@@ -3993,7 +3262,7 @@
       <c r="O11" s="58"/>
       <c r="P11" s="31"/>
       <c r="Q11" s="59"/>
-      <c r="T11" s="10"/>
+      <c r="T11" s="11"/>
       <c r="U11" s="60"/>
       <c r="V11" s="61"/>
       <c r="W11" s="62"/>
@@ -4024,7 +3293,7 @@
       <c r="O12" s="58"/>
       <c r="P12" s="31"/>
       <c r="Q12" s="59"/>
-      <c r="T12" s="10"/>
+      <c r="T12" s="11"/>
       <c r="U12" s="60"/>
       <c r="V12" s="61"/>
       <c r="W12" s="62"/>
@@ -4055,7 +3324,7 @@
       <c r="O13" s="58"/>
       <c r="P13" s="31"/>
       <c r="Q13" s="59"/>
-      <c r="T13" s="10"/>
+      <c r="T13" s="11"/>
       <c r="U13" s="60"/>
       <c r="V13" s="61"/>
       <c r="W13" s="62"/>
@@ -4086,7 +3355,7 @@
       <c r="O14" s="58"/>
       <c r="P14" s="31"/>
       <c r="Q14" s="59"/>
-      <c r="T14" s="10"/>
+      <c r="T14" s="11"/>
       <c r="U14" s="60"/>
       <c r="V14" s="61"/>
       <c r="W14" s="62"/>
@@ -4184,7 +3453,770 @@
     <mergeCell ref="V4:AA4"/>
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
-  <dataValidations count="12">
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA14" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
+      <formula1>"K,L3,L2,L1"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+      <formula1>"unfocused,focused"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+      <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
+      <formula1>1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
+      <formula1>"Manual,Automatic"</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U14" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:AD38"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="N8" activeCellId="0" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="5" t="str">
+        <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
+        <v>Version: 9</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1"/>
+      <c r="C4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC5" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD5" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" s="31" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="45"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="48" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="49" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="49" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="49" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="49" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="50" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="59"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="64"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="59"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="64"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="59"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="64"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="59"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="64"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="59"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="64"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="52" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="59"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="64"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="52" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="59"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="64"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="59"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="64"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="52"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="52"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="52"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="52"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="52"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="52"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="52"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="52"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="52"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="52"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="52"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="52"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="52"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="52"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="52"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="52"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="52"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="52"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="52"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="52"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="52"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="52"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="52"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+  </mergeCells>
+  <dataValidations count="13">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -4233,6 +4265,10 @@
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4251,13 +4287,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -4276,7 +4312,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="65"/>
     </row>
@@ -4354,6 +4390,14 @@
       </c>
       <c r="B13" s="0" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/startup/xlsx/glancing_angle.xlsx
+++ b/startup/xlsx/glancing_angle.xlsx
@@ -25,7 +25,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -54,6 +54,48 @@
         </r>
       </text>
     </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -61,7 +103,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -90,6 +132,48 @@
         </r>
       </text>
     </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -97,7 +181,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -123,6 +207,48 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
         </r>
       </text>
     </comment>
@@ -490,7 +616,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -670,6 +796,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="true" diagonalDown="true">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal style="medium"/>
+    </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="thin"/>
@@ -896,7 +1035,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -912,7 +1051,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1055,9 +1194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1472760</xdr:colOff>
+      <xdr:colOff>1472400</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1066,8 +1205,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3246120" y="4295160"/>
-          <a:ext cx="7829640" cy="2241000"/>
+          <a:off x="3246840" y="4295160"/>
+          <a:ext cx="7830360" cy="2240640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1332,9 +1471,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>164160</xdr:colOff>
+      <xdr:colOff>163800</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1348,12 +1487,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2743920" cy="2526120"/>
+          <a:ext cx="2744280" cy="2525760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1374,9 +1513,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1472760</xdr:colOff>
+      <xdr:colOff>1472400</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1385,8 +1524,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3246120" y="4295160"/>
-          <a:ext cx="7829640" cy="2241000"/>
+          <a:off x="3246840" y="4295160"/>
+          <a:ext cx="7830360" cy="2240640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1651,9 +1790,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>164160</xdr:colOff>
+      <xdr:colOff>163800</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1667,12 +1806,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2743920" cy="2526120"/>
+          <a:ext cx="2744280" cy="2525760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1693,9 +1832,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1472760</xdr:colOff>
+      <xdr:colOff>1472400</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1704,8 +1843,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3246120" y="4295160"/>
-          <a:ext cx="7829640" cy="2241000"/>
+          <a:off x="3246840" y="4295160"/>
+          <a:ext cx="7830360" cy="2240640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1970,9 +2109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>164160</xdr:colOff>
+      <xdr:colOff>163800</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1986,12 +2125,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2743920" cy="2526120"/>
+          <a:ext cx="2744280" cy="2525760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -2013,10 +2152,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2327,9 +2466,9 @@
       <c r="R6" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="45"/>
+      <c r="S6" s="47"/>
       <c r="T6" s="47"/>
-      <c r="U6" s="45"/>
+      <c r="U6" s="47"/>
       <c r="V6" s="48" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -2694,63 +2833,67 @@
     <mergeCell ref="V4:AA4"/>
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
-  <dataValidations count="13">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA14" type="list">
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U14" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 R7:U14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2772,10 +2915,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3086,9 +3229,9 @@
       <c r="R6" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="45"/>
+      <c r="S6" s="47"/>
       <c r="T6" s="47"/>
-      <c r="U6" s="45"/>
+      <c r="U6" s="47"/>
       <c r="V6" s="48" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -3453,67 +3596,71 @@
     <mergeCell ref="V4:AA4"/>
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
-  <dataValidations count="14">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA14" type="list">
+  <dataValidations count="15">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
       <formula1>"Manual,Automatic"</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U14" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
-      <formula1>1</formula1>
-      <formula2>0</formula2>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3535,10 +3682,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N8" activeCellId="0" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3849,9 +3996,9 @@
       <c r="R6" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="45"/>
+      <c r="S6" s="47"/>
       <c r="T6" s="47"/>
-      <c r="U6" s="45"/>
+      <c r="U6" s="47"/>
       <c r="V6" s="48" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -4216,63 +4363,67 @@
     <mergeCell ref="V4:AA4"/>
     <mergeCell ref="AB4:AD4"/>
   </mergeCells>
-  <dataValidations count="13">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA14" type="list">
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:U14" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 R7:U14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4293,7 +4444,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -4403,7 +4554,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/xlsx/glancing_angle.xlsx
+++ b/startup/xlsx/glancing_angle.xlsx
@@ -25,7 +25,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -96,6 +96,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="V6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -103,7 +117,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -174,6 +188,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="V6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -181,7 +209,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -252,12 +280,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="V6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="71">
   <si>
     <t xml:space="preserve">Glancing angle</t>
   </si>
@@ -391,6 +433,9 @@
     <t xml:space="preserve">Sample y  abs. pos. (mm)</t>
   </si>
   <si>
+    <t xml:space="preserve">Slit height</t>
+  </si>
+  <si>
     <t xml:space="preserve">Detector X</t>
   </si>
   <si>
@@ -494,6 +539,9 @@
   </si>
   <si>
     <t xml:space="preserve">Loop over entire macro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add slit height to glancing angle spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -1194,9 +1242,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1472400</xdr:colOff>
+      <xdr:colOff>1472040</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1205,8 +1253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3246840" y="4295160"/>
-          <a:ext cx="7830360" cy="2240640"/>
+          <a:off x="3247560" y="4295160"/>
+          <a:ext cx="7831080" cy="2240280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1471,9 +1519,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
+      <xdr:colOff>163440</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1487,12 +1535,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2744280" cy="2525760"/>
+          <a:ext cx="2744640" cy="2525400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1513,9 +1561,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1472400</xdr:colOff>
+      <xdr:colOff>1472040</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1524,8 +1572,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3246840" y="4295160"/>
-          <a:ext cx="7830360" cy="2240640"/>
+          <a:off x="3247560" y="4295160"/>
+          <a:ext cx="7831080" cy="2240280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1790,9 +1838,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
+      <xdr:colOff>163440</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1806,12 +1854,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2744280" cy="2525760"/>
+          <a:ext cx="2744640" cy="2525400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1832,9 +1880,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1472400</xdr:colOff>
+      <xdr:colOff>1472040</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1843,8 +1891,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3246840" y="4295160"/>
-          <a:ext cx="7830360" cy="2240640"/>
+          <a:off x="3247560" y="4295160"/>
+          <a:ext cx="7831080" cy="2240280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2109,9 +2157,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
+      <xdr:colOff>163440</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2125,12 +2173,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2744280" cy="2525760"/>
+          <a:ext cx="2744640" cy="2525400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -2145,17 +2193,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AD38"/>
+  <dimension ref="B1:AE38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="U5" activeCellId="0" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2170,11 +2218,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="23" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2208,11 +2256,12 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 9</v>
+        <v>Version: 10</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -2247,12 +2296,13 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="0"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="10"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
-      <c r="AA2" s="10"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
@@ -2269,12 +2319,13 @@
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="0"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="10"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
-      <c r="AA3" s="10"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
@@ -2311,19 +2362,20 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="17"/>
+      <c r="W4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="W4" s="17"/>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
-      <c r="AB4" s="18" t="s">
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AC4" s="18"/>
       <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="19" t="s">
@@ -2386,10 +2438,10 @@
       <c r="U5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="20" t="s">
+      <c r="V5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="19" t="s">
+      <c r="W5" s="20" t="s">
         <v>36</v>
       </c>
       <c r="X5" s="19" t="s">
@@ -2401,79 +2453,79 @@
       <c r="Z5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AA5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="23" t="s">
+      <c r="AB5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="30" t="s">
+      <c r="AC5" s="23" t="s">
         <v>42</v>
       </c>
       <c r="AD5" s="30" t="s">
         <v>43</v>
       </c>
+      <c r="AE5" s="30" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" s="31" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="36" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="39" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" s="41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N6" s="42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" s="44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R6" s="46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S6" s="47"/>
       <c r="T6" s="47"/>
       <c r="U6" s="47"/>
-      <c r="V6" s="48" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="W6" s="49" t="n">
+      <c r="V6" s="47"/>
+      <c r="W6" s="48" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2482,20 +2534,24 @@
         <v>1</v>
       </c>
       <c r="Y6" s="49" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="49" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="49" t="n">
+      <c r="AA6" s="49" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AA6" s="50" t="n">
+      <c r="AB6" s="50" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="45"/>
+      <c r="AC6" s="51"/>
       <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="52" t="n">
@@ -2519,14 +2575,15 @@
       <c r="P7" s="31"/>
       <c r="Q7" s="59"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="62"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="61"/>
       <c r="X7" s="62"/>
       <c r="Y7" s="62"/>
       <c r="Z7" s="62"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="64"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="64"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="52" t="n">
@@ -2550,14 +2607,15 @@
       <c r="P8" s="31"/>
       <c r="Q8" s="59"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="62"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="61"/>
       <c r="X8" s="62"/>
       <c r="Y8" s="62"/>
       <c r="Z8" s="62"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="64"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="64"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="52" t="n">
@@ -2581,14 +2639,15 @@
       <c r="P9" s="31"/>
       <c r="Q9" s="59"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="62"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="61"/>
       <c r="X9" s="62"/>
       <c r="Y9" s="62"/>
       <c r="Z9" s="62"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="64"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="64"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="52" t="n">
@@ -2612,14 +2671,15 @@
       <c r="P10" s="31"/>
       <c r="Q10" s="59"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="62"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="61"/>
       <c r="X10" s="62"/>
       <c r="Y10" s="62"/>
       <c r="Z10" s="62"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="64"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="64"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="52" t="n">
@@ -2643,14 +2703,15 @@
       <c r="P11" s="31"/>
       <c r="Q11" s="59"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="62"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="61"/>
       <c r="X11" s="62"/>
       <c r="Y11" s="62"/>
       <c r="Z11" s="62"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="64"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="64"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="52" t="n">
@@ -2674,14 +2735,15 @@
       <c r="P12" s="31"/>
       <c r="Q12" s="59"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="62"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="61"/>
       <c r="X12" s="62"/>
       <c r="Y12" s="62"/>
       <c r="Z12" s="62"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="64"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="64"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="52" t="n">
@@ -2705,14 +2767,15 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="59"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="62"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="61"/>
       <c r="X13" s="62"/>
       <c r="Y13" s="62"/>
       <c r="Z13" s="62"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="64"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="64"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="52" t="n">
@@ -2736,14 +2799,15 @@
       <c r="P14" s="31"/>
       <c r="Q14" s="59"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="62"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="61"/>
       <c r="X14" s="62"/>
       <c r="Y14" s="62"/>
       <c r="Z14" s="62"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="64"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="64"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="52"/>
@@ -2820,7 +2884,7 @@
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AA1"/>
+    <mergeCell ref="E1:AB1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
@@ -2829,71 +2893,71 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 R7:U14" type="none">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:V6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
-      <formula1>1</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 R7:V14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2908,17 +2972,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AD38"/>
+  <dimension ref="B1:AE38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="U5" activeCellId="0" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2933,11 +2997,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="23" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2971,11 +3035,12 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 9</v>
+        <v>Version: 10</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -3010,12 +3075,13 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="0"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="10"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
-      <c r="AA2" s="10"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
@@ -3032,12 +3098,13 @@
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="0"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="10"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
-      <c r="AA3" s="10"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
@@ -3074,19 +3141,20 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="17"/>
+      <c r="W4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="W4" s="17"/>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
-      <c r="AB4" s="18" t="s">
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AC4" s="18"/>
       <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="19" t="s">
@@ -3149,10 +3217,10 @@
       <c r="U5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="20" t="s">
+      <c r="V5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="19" t="s">
+      <c r="W5" s="20" t="s">
         <v>36</v>
       </c>
       <c r="X5" s="19" t="s">
@@ -3164,79 +3232,79 @@
       <c r="Z5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AA5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="23" t="s">
+      <c r="AB5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="30" t="s">
+      <c r="AC5" s="23" t="s">
         <v>42</v>
       </c>
       <c r="AD5" s="30" t="s">
         <v>43</v>
       </c>
+      <c r="AE5" s="30" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" s="31" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="36" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="39" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" s="41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N6" s="42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" s="44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R6" s="46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S6" s="47"/>
       <c r="T6" s="47"/>
       <c r="U6" s="47"/>
-      <c r="V6" s="48" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="W6" s="49" t="n">
+      <c r="V6" s="47"/>
+      <c r="W6" s="48" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3245,20 +3313,24 @@
         <v>1</v>
       </c>
       <c r="Y6" s="49" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="49" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="49" t="n">
+      <c r="AA6" s="49" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AA6" s="50" t="n">
+      <c r="AB6" s="50" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="45"/>
+      <c r="AC6" s="51"/>
       <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="52" t="n">
@@ -3282,14 +3354,15 @@
       <c r="P7" s="31"/>
       <c r="Q7" s="59"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="62"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="61"/>
       <c r="X7" s="62"/>
       <c r="Y7" s="62"/>
       <c r="Z7" s="62"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="64"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="64"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="52" t="n">
@@ -3313,14 +3386,15 @@
       <c r="P8" s="31"/>
       <c r="Q8" s="59"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="62"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="61"/>
       <c r="X8" s="62"/>
       <c r="Y8" s="62"/>
       <c r="Z8" s="62"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="64"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="64"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="52" t="n">
@@ -3344,14 +3418,15 @@
       <c r="P9" s="31"/>
       <c r="Q9" s="59"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="62"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="61"/>
       <c r="X9" s="62"/>
       <c r="Y9" s="62"/>
       <c r="Z9" s="62"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="64"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="64"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="52" t="n">
@@ -3375,14 +3450,15 @@
       <c r="P10" s="31"/>
       <c r="Q10" s="59"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="62"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="61"/>
       <c r="X10" s="62"/>
       <c r="Y10" s="62"/>
       <c r="Z10" s="62"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="64"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="64"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="52" t="n">
@@ -3406,14 +3482,15 @@
       <c r="P11" s="31"/>
       <c r="Q11" s="59"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="62"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="61"/>
       <c r="X11" s="62"/>
       <c r="Y11" s="62"/>
       <c r="Z11" s="62"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="64"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="64"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="52" t="n">
@@ -3437,14 +3514,15 @@
       <c r="P12" s="31"/>
       <c r="Q12" s="59"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="62"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="61"/>
       <c r="X12" s="62"/>
       <c r="Y12" s="62"/>
       <c r="Z12" s="62"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="64"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="64"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="52" t="n">
@@ -3468,14 +3546,15 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="59"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="62"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="61"/>
       <c r="X13" s="62"/>
       <c r="Y13" s="62"/>
       <c r="Z13" s="62"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="64"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="64"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="52" t="n">
@@ -3499,14 +3578,15 @@
       <c r="P14" s="31"/>
       <c r="Q14" s="59"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="62"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="61"/>
       <c r="X14" s="62"/>
       <c r="Y14" s="62"/>
       <c r="Z14" s="62"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="64"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="64"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="52"/>
@@ -3583,7 +3663,7 @@
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AA1"/>
+    <mergeCell ref="E1:AB1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
@@ -3592,75 +3672,75 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
       <formula1>"Manual,Automatic"</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:U14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:V14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:V6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3675,17 +3755,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AD38"/>
+  <dimension ref="B1:AE38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="U5" activeCellId="0" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3700,11 +3780,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="22" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="23" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3738,11 +3818,12 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 9</v>
+        <v>Version: 10</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -3777,12 +3858,13 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="0"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="10"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
-      <c r="AA2" s="10"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12"/>
@@ -3799,12 +3881,13 @@
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="0"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="10"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
-      <c r="AA3" s="10"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
@@ -3841,19 +3924,20 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="17"/>
+      <c r="W4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="W4" s="17"/>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
-      <c r="AB4" s="18" t="s">
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AC4" s="18"/>
       <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="19" t="s">
@@ -3916,10 +4000,10 @@
       <c r="U5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="20" t="s">
+      <c r="V5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="19" t="s">
+      <c r="W5" s="20" t="s">
         <v>36</v>
       </c>
       <c r="X5" s="19" t="s">
@@ -3931,79 +4015,79 @@
       <c r="Z5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AA5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="23" t="s">
+      <c r="AB5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="30" t="s">
+      <c r="AC5" s="23" t="s">
         <v>42</v>
       </c>
       <c r="AD5" s="30" t="s">
         <v>43</v>
       </c>
+      <c r="AE5" s="30" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" s="31" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="36" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="39" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" s="41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N6" s="42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" s="44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R6" s="46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S6" s="47"/>
       <c r="T6" s="47"/>
       <c r="U6" s="47"/>
-      <c r="V6" s="48" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="W6" s="49" t="n">
+      <c r="V6" s="47"/>
+      <c r="W6" s="48" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4012,20 +4096,24 @@
         <v>1</v>
       </c>
       <c r="Y6" s="49" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="49" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="49" t="n">
+      <c r="AA6" s="49" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AA6" s="50" t="n">
+      <c r="AB6" s="50" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="45"/>
+      <c r="AC6" s="51"/>
       <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="52" t="n">
@@ -4049,14 +4137,15 @@
       <c r="P7" s="31"/>
       <c r="Q7" s="59"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="62"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="61"/>
       <c r="X7" s="62"/>
       <c r="Y7" s="62"/>
       <c r="Z7" s="62"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="64"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="64"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="52" t="n">
@@ -4080,14 +4169,15 @@
       <c r="P8" s="31"/>
       <c r="Q8" s="59"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="62"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="61"/>
       <c r="X8" s="62"/>
       <c r="Y8" s="62"/>
       <c r="Z8" s="62"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="64"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="64"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="52" t="n">
@@ -4111,14 +4201,15 @@
       <c r="P9" s="31"/>
       <c r="Q9" s="59"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="62"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="61"/>
       <c r="X9" s="62"/>
       <c r="Y9" s="62"/>
       <c r="Z9" s="62"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="64"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="64"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="52" t="n">
@@ -4142,14 +4233,15 @@
       <c r="P10" s="31"/>
       <c r="Q10" s="59"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="62"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="61"/>
       <c r="X10" s="62"/>
       <c r="Y10" s="62"/>
       <c r="Z10" s="62"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="64"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="64"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="52" t="n">
@@ -4173,14 +4265,15 @@
       <c r="P11" s="31"/>
       <c r="Q11" s="59"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="62"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="61"/>
       <c r="X11" s="62"/>
       <c r="Y11" s="62"/>
       <c r="Z11" s="62"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="64"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="64"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="52" t="n">
@@ -4204,14 +4297,15 @@
       <c r="P12" s="31"/>
       <c r="Q12" s="59"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="62"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="61"/>
       <c r="X12" s="62"/>
       <c r="Y12" s="62"/>
       <c r="Z12" s="62"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="64"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="64"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="52" t="n">
@@ -4235,14 +4329,15 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="59"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="62"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="61"/>
       <c r="X13" s="62"/>
       <c r="Y13" s="62"/>
       <c r="Z13" s="62"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="64"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="64"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="52" t="n">
@@ -4266,14 +4361,15 @@
       <c r="P14" s="31"/>
       <c r="Q14" s="59"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="62"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="61"/>
       <c r="X14" s="62"/>
       <c r="Y14" s="62"/>
       <c r="Z14" s="62"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="64"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="64"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="52"/>
@@ -4350,7 +4446,7 @@
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AA1"/>
+    <mergeCell ref="E1:AB1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
@@ -4359,71 +4455,71 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:AA14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AD6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 R7:U14" type="none">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:V6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
-      <formula1>1</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 R7:V14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4438,13 +4534,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -4452,18 +4548,18 @@
   <sheetData>
     <row r="1" s="65" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="65"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="65"/>
     </row>
@@ -4473,10 +4569,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4484,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4492,7 +4588,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,7 +4596,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4508,7 +4604,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4516,7 +4612,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4524,7 +4620,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4532,7 +4628,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4540,7 +4636,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,13 +4644,21 @@
         <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/xlsx/glancing_angle.xlsx
+++ b/startup/xlsx/glancing_angle.xlsx
@@ -1242,9 +1242,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1472040</xdr:colOff>
+      <xdr:colOff>1471680</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1253,8 +1253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3247560" y="4295160"/>
-          <a:ext cx="7831080" cy="2240280"/>
+          <a:off x="3248640" y="4295160"/>
+          <a:ext cx="7833600" cy="2239920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1519,9 +1519,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>163440</xdr:colOff>
+      <xdr:colOff>163080</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1535,7 +1535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2744640" cy="2525400"/>
+          <a:ext cx="2745360" cy="2525040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1561,9 +1561,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1472040</xdr:colOff>
+      <xdr:colOff>1471680</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1572,8 +1572,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3247560" y="4295160"/>
-          <a:ext cx="7831080" cy="2240280"/>
+          <a:off x="3248640" y="4295160"/>
+          <a:ext cx="7833600" cy="2239920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1838,9 +1838,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>163440</xdr:colOff>
+      <xdr:colOff>163080</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1854,7 +1854,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2744640" cy="2525400"/>
+          <a:ext cx="2745360" cy="2525040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1880,9 +1880,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1472040</xdr:colOff>
+      <xdr:colOff>1471680</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1891,8 +1891,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3247560" y="4295160"/>
-          <a:ext cx="7831080" cy="2240280"/>
+          <a:off x="3248640" y="4295160"/>
+          <a:ext cx="7833600" cy="2239920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2157,9 +2157,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>163440</xdr:colOff>
+      <xdr:colOff>163080</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2173,7 +2173,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2744640" cy="2525400"/>
+          <a:ext cx="2745360" cy="2525040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2200,10 +2200,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U5" activeCellId="0" sqref="U5"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2534,8 +2534,8 @@
         <v>1</v>
       </c>
       <c r="Y6" s="49" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="Z6" s="49" t="n">
         <f aca="false">FALSE()</f>
@@ -2897,8 +2897,8 @@
     <mergeCell ref="W4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
-  <dataValidations count="14">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB14" type="list">
+  <dataValidations count="15">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2917,10 +2917,6 @@
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
@@ -2946,13 +2942,21 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:V6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 R7:V14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 V6:V14 R7:U14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2979,10 +2983,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U5" activeCellId="0" sqref="U5"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3313,8 +3317,8 @@
         <v>1</v>
       </c>
       <c r="Y6" s="49" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="Z6" s="49" t="n">
         <f aca="false">FALSE()</f>
@@ -3676,8 +3680,8 @@
     <mergeCell ref="W4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB14" type="list">
+  <dataValidations count="17">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3696,10 +3700,6 @@
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
@@ -3733,9 +3733,21 @@
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:V6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3758,14 +3770,14 @@
   <dimension ref="B1:AE38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U5" activeCellId="0" sqref="U5"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4096,8 +4108,8 @@
         <v>1</v>
       </c>
       <c r="Y6" s="49" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="Z6" s="49" t="n">
         <f aca="false">FALSE()</f>
@@ -4459,8 +4471,8 @@
     <mergeCell ref="W4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
-  <dataValidations count="14">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB14" type="list">
+  <dataValidations count="15">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4479,10 +4491,6 @@
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
@@ -4508,13 +4516,21 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:V6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 R7:V14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 V6:V14 R7:U14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4540,7 +4556,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>

--- a/startup/xlsx/glancing_angle.xlsx
+++ b/startup/xlsx/glancing_angle.xlsx
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="72">
   <si>
     <t xml:space="preserve">Glancing angle</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t xml:space="preserve">add slit height to glancing angle spreadsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add a third motor to the grid spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -1242,9 +1245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1471680</xdr:colOff>
+      <xdr:colOff>1471320</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1253,8 +1256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3248640" y="4295160"/>
-          <a:ext cx="7833600" cy="2239920"/>
+          <a:off x="3250080" y="4295160"/>
+          <a:ext cx="7835760" cy="2239560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1519,9 +1522,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>163080</xdr:colOff>
+      <xdr:colOff>162720</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1535,7 +1538,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2745360" cy="2525040"/>
+          <a:ext cx="2746440" cy="2524680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1561,9 +1564,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1471680</xdr:colOff>
+      <xdr:colOff>1471320</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1572,8 +1575,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3248640" y="4295160"/>
-          <a:ext cx="7833600" cy="2239920"/>
+          <a:off x="3250080" y="4295160"/>
+          <a:ext cx="7835760" cy="2239560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1838,9 +1841,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>163080</xdr:colOff>
+      <xdr:colOff>162720</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1854,7 +1857,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2745360" cy="2525040"/>
+          <a:ext cx="2746440" cy="2524680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1880,9 +1883,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1471680</xdr:colOff>
+      <xdr:colOff>1471320</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1891,8 +1894,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3248640" y="4295160"/>
-          <a:ext cx="7833600" cy="2239920"/>
+          <a:off x="3250080" y="4295160"/>
+          <a:ext cx="7835760" cy="2239560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2157,9 +2160,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>163080</xdr:colOff>
+      <xdr:colOff>162720</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2173,7 +2176,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2745360" cy="2525040"/>
+          <a:ext cx="2746440" cy="2524680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2203,7 +2206,7 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2261,7 +2264,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 10</v>
+        <v>Version: 11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -2946,10 +2949,6 @@
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 V6:V14 R7:U14" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -2957,6 +2956,10 @@
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 V6:V14 R7:U14" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2986,7 +2989,7 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3044,7 +3047,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 10</v>
+        <v>Version: 11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -3777,7 +3780,7 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3835,7 +3838,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 10</v>
+        <v>Version: 11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -4520,10 +4523,6 @@
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 V6:V14 R7:U14" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -4531,6 +4530,10 @@
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 V6:V14 R7:U14" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4550,13 +4553,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -4575,7 +4578,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="65"/>
     </row>
@@ -4669,6 +4672,14 @@
       </c>
       <c r="B15" s="0" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/startup/xlsx/glancing_angle.xlsx
+++ b/startup/xlsx/glancing_angle.xlsx
@@ -25,7 +25,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -117,7 +117,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -209,7 +209,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -1245,9 +1245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1471320</xdr:colOff>
+      <xdr:colOff>1470960</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1256,8 +1256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3250080" y="4295160"/>
-          <a:ext cx="7835760" cy="2239560"/>
+          <a:off x="3250800" y="4295520"/>
+          <a:ext cx="7836480" cy="2239200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1279,7 +1279,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1522,9 +1522,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>162720</xdr:colOff>
+      <xdr:colOff>162360</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1538,12 +1538,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2746440" cy="2524680"/>
+          <a:ext cx="2746800" cy="2524320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1564,9 +1564,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1471320</xdr:colOff>
+      <xdr:colOff>1470960</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1575,8 +1575,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3250080" y="4295160"/>
-          <a:ext cx="7835760" cy="2239560"/>
+          <a:off x="3250800" y="4295520"/>
+          <a:ext cx="7836480" cy="2239200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1598,7 +1598,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1841,9 +1841,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>162720</xdr:colOff>
+      <xdr:colOff>162360</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1857,12 +1857,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2746440" cy="2524680"/>
+          <a:ext cx="2746800" cy="2524320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1883,9 +1883,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1471320</xdr:colOff>
+      <xdr:colOff>1470960</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1894,8 +1894,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3250080" y="4295160"/>
-          <a:ext cx="7835760" cy="2239560"/>
+          <a:off x="3250800" y="4295520"/>
+          <a:ext cx="7836480" cy="2239200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1917,7 +1917,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -2160,9 +2160,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>162720</xdr:colOff>
+      <xdr:colOff>162360</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2176,12 +2176,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2746440" cy="2524680"/>
+          <a:ext cx="2746800" cy="2524320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -2203,10 +2203,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2900,71 +2900,75 @@
     <mergeCell ref="W4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+  <dataValidations count="16">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 V6:V14 R7:U14" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:V14 S7:U14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
+      <formula1>"Manual,Automatic"</formula1>
+      <formula2>150</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2986,10 +2990,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="R6" activeCellId="0" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3684,78 +3688,78 @@
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
   <dataValidations count="17">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+      <formula1>"True,False"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
       <formula1>"Manual,Automatic"</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:V14" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:V14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
-      <formula1>"True,False"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3780,7 +3784,7 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4474,71 +4478,75 @@
     <mergeCell ref="W4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+  <dataValidations count="16">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 V6:V14 R7:U14" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:V14 S7:U14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
+      <formula1>"Manual,Automatic"</formula1>
+      <formula2>150</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4559,7 +4567,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -4685,7 +4693,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/xlsx/glancing_angle.xlsx
+++ b/startup/xlsx/glancing_angle.xlsx
@@ -25,7 +25,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -117,7 +117,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -209,7 +209,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="75">
   <si>
     <t xml:space="preserve">Glancing angle</t>
   </si>
@@ -323,6 +323,15 @@
   </si>
   <si>
     <t xml:space="preserve">Number of repetitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retraction distance</t>
   </si>
   <si>
     <t xml:space="preserve">File name</t>
@@ -430,9 +439,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Sample y  abs. pos. (mm)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Slit height</t>
   </si>
   <si>
@@ -545,6 +551,9 @@
   </si>
   <si>
     <t xml:space="preserve">add a third motor to the grid spreadsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added orientation and retraction distance to glancing angle spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -667,12 +676,33 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -684,9 +714,9 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -897,7 +927,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -938,19 +968,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -958,19 +1004,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -978,7 +1024,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -986,11 +1032,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -998,19 +1044,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1026,31 +1072,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1058,27 +1100,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1086,11 +1132,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1098,19 +1144,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1122,7 +1168,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1130,19 +1176,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1150,11 +1196,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1236,28 +1282,65 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>162000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4312800"/>
+          <a:ext cx="2746800" cy="2523960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1470960</xdr:colOff>
+      <xdr:colOff>1925280</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvPr id="1" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3250800" y="4295520"/>
-          <a:ext cx="7836480" cy="2239200"/>
+          <a:off x="3558240" y="4434480"/>
+          <a:ext cx="7985160" cy="2238480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1279,7 +1362,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1334,7 +1417,16 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>2. Default values for all parameters go in line 6</a:t>
+            <a:t>2. Orientation (cell G3): para = sample surface parallel to X-ray electric vector / perp = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>perpendicular</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1353,7 +1445,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
+            <a:t>3. Default values for all parameters go in line 6</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1372,7 +1464,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
+            <a:t>4. Sample-specific parameters are entered in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1391,7 +1483,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Specify pitch and y motor positions and the method for finding them in columns R, S, T</a:t>
+            <a:t>5. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1410,25 +1502,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. If column R is “Manual”, columns S and T </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>must</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t> be filled in</a:t>
+            <a:t>6. Specify pitch and y motor positions and the method for finding them in columns R, S, T</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1447,25 +1521,25 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Specify detector position in column U, blank means to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>not move</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t> detector</a:t>
+            <a:t>7. If column R is “Manual”, columns S and T </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>must</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t> be filled in</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1484,7 +1558,25 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>8. Do not add rows above row 7</a:t>
+            <a:t>8. Specify detector position in column U, blank means to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>not move</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t> detector</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1503,7 +1595,26 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>9. Do not add columns before column AE</a:t>
+            <a:t>9. Do not add rows above row 7</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>10. Do not add columns before column AE</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1513,22 +1624,27 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>162360</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:colOff>162000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 1" descr=""/>
+        <xdr:cNvPr id="2" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1538,45 +1654,40 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2746800" cy="2524320"/>
+          <a:ext cx="2746800" cy="2523960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:colOff>303840</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1470960</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:colOff>1255680</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3250800" y="4295520"/>
-          <a:ext cx="7836480" cy="2239200"/>
+          <a:off x="2888640" y="4192920"/>
+          <a:ext cx="7985160" cy="2238480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1598,7 +1709,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1653,7 +1764,16 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>2. Default values for all parameters go in line 6</a:t>
+            <a:t>2. Orientation (cell G3): para = sample surface parallel to X-ray electric vector / perp = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>perpendicular</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1672,7 +1792,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
+            <a:t>3. Default values for all parameters go in line 6</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1691,7 +1811,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
+            <a:t>4. Sample-specific parameters are entered in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1710,7 +1830,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Specify pitch and y motor positions and the method for finding them in columns R, S, T</a:t>
+            <a:t>5. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1729,25 +1849,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. If column R is “Manual”, columns S and T </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>must</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t> be filled in</a:t>
+            <a:t>6. Specify pitch and y motor positions and the method for finding them in columns R, S, T</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1766,25 +1868,25 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Specify detector position in column U, blank means to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>not move</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t> detector</a:t>
+            <a:t>7. If column R is “Manual”, columns S and T </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>must</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t> be filled in</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1803,7 +1905,25 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>8. Do not add rows above row 7</a:t>
+            <a:t>8. Specify detector position in column U, blank means to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>not move</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t> detector</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1822,7 +1942,26 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>9. Do not add columns before column AE</a:t>
+            <a:t>9. Do not add rows above row 7</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>10. Do not add columns before column AE</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1832,22 +1971,27 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>162360</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:colOff>162000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 1" descr=""/>
+        <xdr:cNvPr id="4" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1857,45 +2001,40 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2746800" cy="2524320"/>
+          <a:ext cx="2746800" cy="2523960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:colOff>678600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1470960</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:colOff>1630440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3250800" y="4295520"/>
-          <a:ext cx="7836480" cy="2239200"/>
+          <a:off x="3263400" y="4296600"/>
+          <a:ext cx="7985160" cy="2238480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1917,7 +2056,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360" anchor="t">
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1934,7 +2073,17 @@
               <a:uFillTx/>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>Instructions:</a:t>
+            <a:t>Instructio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>ns:</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1953,7 +2102,52 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
+            <a:t>1. Add the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>names of all </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>team </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>members to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>the green </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>box in row 1</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1972,7 +2166,106 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>2. Default values for all parameters go in line 6</a:t>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>Orientation </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>(cell G3): </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>para = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>sample </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>surface </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>parallel to X-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>ray electric </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>vector / </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>perp = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>perpendicul</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>ar</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1991,7 +2284,43 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
+            <a:t>3. Default </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>values for </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>all </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>parameters </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>go in line 6</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2010,7 +2339,43 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
+            <a:t>4. Sample-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>specific </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>parameters </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>are entered </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2029,7 +2394,61 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Specify pitch and y motor positions and the method for finding them in columns R, S, T</a:t>
+            <a:t>5. Default </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>values from </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>line 6 will be </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>used for all </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>cells left </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>blank in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2048,25 +2467,79 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. If column R is “Manual”, columns S and T </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>must</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t> be filled in</a:t>
+            <a:t>6. Specify </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>pitch and y </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>motor </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>positions </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>and the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>method for </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>finding them </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>in columns </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>R, S, T</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2085,25 +2558,70 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Specify detector position in column U, blank means to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>not move</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t> detector</a:t>
+            <a:t>7. If column </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>R is </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>“Manual”, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>columns S </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>and T </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>must</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>be filled in</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2122,7 +2640,79 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>8. Do not add rows above row 7</a:t>
+            <a:t>8. Specify </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>detector </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>position in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>column U, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>blank </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>means to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>not move</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>detector</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2141,7 +2731,80 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>9. Do not add columns before column AE</a:t>
+            <a:t>9. Do not </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>add rows </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>above row 7</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>10. Do not </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>add </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>columns </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>before </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>column AE</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2149,43 +2812,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>162360</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4181760"/>
-          <a:ext cx="2746800" cy="2524320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2203,10 +2829,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2264,7 +2890,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 11</v>
+        <v>Version: 12</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -2300,22 +2926,34 @@
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
-      <c r="W2" s="10"/>
+      <c r="W2" s="12"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
-      <c r="AB2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="AB2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="E3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="O3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -2323,574 +2961,576 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="10"/>
+      <c r="W3" s="12"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
-      <c r="AB3" s="10"/>
+      <c r="AB3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16" t="s">
+      <c r="C4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17" t="s">
+      <c r="L4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="18" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="B5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="G5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="H5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="I5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="J5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="K5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="L5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="M5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="N5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="28" t="s">
+      <c r="O5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="P5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="Q5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="R5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="S5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="20" t="s">
+      <c r="T5" s="25" t="str">
+        <f aca="false">IF(G3="para","Sample y abs. pos. (mm)","Sample x abs. pos. (mm)")</f>
+        <v>Sample y abs. pos. (mm)</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="19" t="s">
+      <c r="V5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="19" t="s">
+      <c r="W5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="X5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="19" t="s">
+      <c r="Y5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="Z5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="23" t="s">
+      <c r="AA5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AD5" s="30" t="s">
+      <c r="AB5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AE5" s="30" t="s">
+      <c r="AC5" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" s="31" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="32" t="s">
+      <c r="AD5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="AE5" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" s="35" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="32" t="n">
+      <c r="D6" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="39" t="s">
+      <c r="H6" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="39" t="n">
+      <c r="I6" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="42" t="s">
+      <c r="L6" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="M6" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="N6" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="O6" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="46" t="s">
+      <c r="P6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="48" t="n">
+      <c r="Q6" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="52" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="X6" s="49" t="n">
+      <c r="X6" s="53" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="49" t="n">
+      <c r="Y6" s="53" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="49" t="n">
+      <c r="Z6" s="53" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="49" t="n">
+      <c r="AA6" s="53" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AB6" s="50" t="n">
+      <c r="AB6" s="54" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="52" t="n">
+      <c r="B7" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="59"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="63"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="68"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="52" t="n">
+      <c r="B8" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="59"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="63"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="68"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="52" t="n">
+      <c r="B9" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="59"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="63"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="68"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="52" t="n">
+      <c r="B10" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="59"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="63"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="63"/>
-      <c r="AC10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="68"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="52" t="n">
+      <c r="B11" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="59"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="63"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="68"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="52" t="n">
+      <c r="B12" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="59"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="63"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="63"/>
-      <c r="AC12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="68"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="52" t="n">
+      <c r="B13" s="56" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="59"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="63"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="63"/>
-      <c r="AC13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="68"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="52" t="n">
+      <c r="B14" s="56" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="59"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="63"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="63"/>
-      <c r="AC14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="68"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="52"/>
+      <c r="B15" s="56"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="52"/>
+      <c r="B16" s="56"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="52"/>
+      <c r="B17" s="56"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="52"/>
+      <c r="B18" s="56"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="52"/>
+      <c r="B19" s="56"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="52"/>
+      <c r="B20" s="56"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="52"/>
+      <c r="B21" s="56"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="52"/>
+      <c r="B22" s="56"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="52"/>
+      <c r="B23" s="56"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="52"/>
+      <c r="B24" s="56"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="52"/>
+      <c r="B25" s="56"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="52"/>
+      <c r="B26" s="56"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="52"/>
+      <c r="B27" s="56"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="52"/>
+      <c r="B28" s="56"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="52"/>
+      <c r="B29" s="56"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="52"/>
+      <c r="B30" s="56"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="52"/>
+      <c r="B31" s="56"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="52"/>
+      <c r="B32" s="56"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="52"/>
+      <c r="B33" s="56"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="52"/>
+      <c r="B34" s="56"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="52"/>
+      <c r="B35" s="56"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="52"/>
+      <c r="B36" s="56"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="52"/>
+      <c r="B37" s="56"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="52"/>
+      <c r="B38" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:AB1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
@@ -2900,75 +3540,79 @@
     <mergeCell ref="W4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
-  <dataValidations count="16">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+  <dataValidations count="17">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:V14 S7:U14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:V14 S7:U14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
       <formula1>"Manual,Automatic"</formula1>
       <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G3" type="list">
+      <formula1>"para,perp"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2990,10 +3634,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R6" activeCellId="0" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3051,7 +3695,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 11</v>
+        <v>Version: 12</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -3087,22 +3731,34 @@
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
-      <c r="W2" s="10"/>
+      <c r="W2" s="12"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
-      <c r="AB2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="AB2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="E3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="O3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -3110,574 +3766,576 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="10"/>
+      <c r="W3" s="12"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
-      <c r="AB3" s="10"/>
+      <c r="AB3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16" t="s">
+      <c r="C4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17" t="s">
+      <c r="L4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="18" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="B5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="G5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="H5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="I5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="J5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="K5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="L5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="M5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="N5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="28" t="s">
+      <c r="O5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="P5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="Q5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="R5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="S5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="20" t="s">
+      <c r="T5" s="25" t="str">
+        <f aca="false">IF(G3="para","Sample y abs. pos. (mm)","Sample x abs. pos. (mm)")</f>
+        <v>Sample y abs. pos. (mm)</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="19" t="s">
+      <c r="V5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="19" t="s">
+      <c r="W5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="X5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="19" t="s">
+      <c r="Y5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="Z5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="23" t="s">
+      <c r="AA5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AD5" s="30" t="s">
+      <c r="AB5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AE5" s="30" t="s">
+      <c r="AC5" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" s="31" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="32" t="s">
+      <c r="AD5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="AE5" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" s="35" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="32" t="n">
+      <c r="D6" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="39" t="s">
+      <c r="H6" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="39" t="n">
+      <c r="I6" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="42" t="s">
+      <c r="L6" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="M6" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="N6" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="O6" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="46" t="s">
+      <c r="P6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="48" t="n">
+      <c r="Q6" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="52" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="X6" s="49" t="n">
+      <c r="X6" s="53" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="49" t="n">
+      <c r="Y6" s="53" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="49" t="n">
+      <c r="Z6" s="53" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="49" t="n">
+      <c r="AA6" s="53" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AB6" s="50" t="n">
+      <c r="AB6" s="54" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="52" t="n">
+      <c r="B7" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="59"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="63"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="68"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="52" t="n">
+      <c r="B8" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="59"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="63"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="68"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="52" t="n">
+      <c r="B9" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="59"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="63"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="68"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="52" t="n">
+      <c r="B10" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="59"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="63"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="63"/>
-      <c r="AC10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="68"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="52" t="n">
+      <c r="B11" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="59"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="63"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="68"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="52" t="n">
+      <c r="B12" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="59"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="63"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="63"/>
-      <c r="AC12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="68"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="52" t="n">
+      <c r="B13" s="56" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="59"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="63"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="63"/>
-      <c r="AC13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="68"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="52" t="n">
+      <c r="B14" s="56" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="59"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="63"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="63"/>
-      <c r="AC14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="68"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="52"/>
+      <c r="B15" s="56"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="52"/>
+      <c r="B16" s="56"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="52"/>
+      <c r="B17" s="56"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="52"/>
+      <c r="B18" s="56"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="52"/>
+      <c r="B19" s="56"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="52"/>
+      <c r="B20" s="56"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="52"/>
+      <c r="B21" s="56"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="52"/>
+      <c r="B22" s="56"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="52"/>
+      <c r="B23" s="56"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="52"/>
+      <c r="B24" s="56"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="52"/>
+      <c r="B25" s="56"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="52"/>
+      <c r="B26" s="56"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="52"/>
+      <c r="B27" s="56"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="52"/>
+      <c r="B28" s="56"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="52"/>
+      <c r="B29" s="56"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="52"/>
+      <c r="B30" s="56"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="52"/>
+      <c r="B31" s="56"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="52"/>
+      <c r="B32" s="56"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="52"/>
+      <c r="B33" s="56"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="52"/>
+      <c r="B34" s="56"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="52"/>
+      <c r="B35" s="56"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="52"/>
+      <c r="B36" s="56"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="52"/>
+      <c r="B37" s="56"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="52"/>
+      <c r="B38" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:AB1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
@@ -3687,79 +4345,83 @@
     <mergeCell ref="W4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
-  <dataValidations count="17">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+  <dataValidations count="18">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
       <formula1>"Manual,Automatic"</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:V14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:V14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G3" type="list">
+      <formula1>"para,perp"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3784,7 +4446,7 @@
       <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3842,7 +4504,7 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 11</v>
+        <v>Version: 12</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
@@ -3878,22 +4540,34 @@
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
-      <c r="W2" s="10"/>
+      <c r="W2" s="12"/>
       <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
-      <c r="AB2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="AB2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="E3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="O3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -3901,574 +4575,576 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="10"/>
+      <c r="W3" s="12"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
-      <c r="AB3" s="10"/>
+      <c r="AB3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16" t="s">
+      <c r="C4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17" t="s">
+      <c r="L4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="18" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="B5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="G5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="H5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="I5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="J5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="K5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="L5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="M5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="N5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="28" t="s">
+      <c r="O5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="P5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="Q5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="R5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="S5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="20" t="s">
+      <c r="T5" s="25" t="str">
+        <f aca="false">IF(G3="para","Sample y abs. pos. (mm)","Sample x abs. pos. (mm)")</f>
+        <v>Sample y abs. pos. (mm)</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="19" t="s">
+      <c r="V5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="19" t="s">
+      <c r="W5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="X5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="19" t="s">
+      <c r="Y5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="Z5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="23" t="s">
+      <c r="AA5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AD5" s="30" t="s">
+      <c r="AB5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AE5" s="30" t="s">
+      <c r="AC5" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" s="31" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="32" t="s">
+      <c r="AD5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="AE5" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" s="35" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="32" t="n">
+      <c r="D6" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="39" t="s">
+      <c r="H6" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="39" t="n">
+      <c r="I6" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="42" t="s">
+      <c r="L6" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="M6" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="N6" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="O6" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="46" t="s">
+      <c r="P6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="48" t="n">
+      <c r="Q6" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="52" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="X6" s="49" t="n">
+      <c r="X6" s="53" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="49" t="n">
+      <c r="Y6" s="53" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="49" t="n">
+      <c r="Z6" s="53" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="49" t="n">
+      <c r="AA6" s="53" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AB6" s="50" t="n">
+      <c r="AB6" s="54" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="52" t="n">
+      <c r="B7" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="59"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="63"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="68"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="52" t="n">
+      <c r="B8" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="59"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="63"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="68"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="52" t="n">
+      <c r="B9" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="59"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="63"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="68"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="52" t="n">
+      <c r="B10" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="59"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="63"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="63"/>
-      <c r="AC10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="68"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="52" t="n">
+      <c r="B11" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="59"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="63"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="68"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="52" t="n">
+      <c r="B12" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="59"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="63"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="63"/>
-      <c r="AC12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="68"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="52" t="n">
+      <c r="B13" s="56" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="59"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="63"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="63"/>
-      <c r="AC13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="68"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="52" t="n">
+      <c r="B14" s="56" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="59"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="63"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="63"/>
-      <c r="AC14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="68"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="52"/>
+      <c r="B15" s="56"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="52"/>
+      <c r="B16" s="56"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="52"/>
+      <c r="B17" s="56"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="52"/>
+      <c r="B18" s="56"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="52"/>
+      <c r="B19" s="56"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="52"/>
+      <c r="B20" s="56"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="52"/>
+      <c r="B21" s="56"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="52"/>
+      <c r="B22" s="56"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="52"/>
+      <c r="B23" s="56"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="52"/>
+      <c r="B24" s="56"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="52"/>
+      <c r="B25" s="56"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="52"/>
+      <c r="B26" s="56"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="52"/>
+      <c r="B27" s="56"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="52"/>
+      <c r="B28" s="56"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="52"/>
+      <c r="B29" s="56"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="52"/>
+      <c r="B30" s="56"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="52"/>
+      <c r="B31" s="56"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="52"/>
+      <c r="B32" s="56"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="52"/>
+      <c r="B33" s="56"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="52"/>
+      <c r="B34" s="56"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="52"/>
+      <c r="B35" s="56"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="52"/>
+      <c r="B36" s="56"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="52"/>
+      <c r="B37" s="56"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="52"/>
+      <c r="B38" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:AB1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
@@ -4478,75 +5154,79 @@
     <mergeCell ref="W4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
   </mergeCells>
-  <dataValidations count="16">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+  <dataValidations count="17">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I14" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J14" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E14" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B38" type="whole">
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K14" type="decimal">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H14" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2" type="whole">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:V14 S7:U14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:V14 S7:U14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
       <formula1>"Manual,Automatic"</formula1>
       <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G3" type="list">
+      <formula1>"para,perp"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4561,45 +5241,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
   </cols>
   <sheetData>
-    <row r="1" s="65" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
-        <v>58</v>
+    <row r="1" s="69" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="34" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="65"/>
+      <c r="A2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="n">
-        <v>11</v>
-      </c>
-      <c r="B3" s="65"/>
+      <c r="A3" s="34" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3" s="69"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="69"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>60</v>
+      <c r="A5" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4607,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4615,7 +5295,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4623,7 +5303,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4631,7 +5311,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,7 +5319,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,7 +5327,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4655,7 +5335,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4663,7 +5343,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4671,7 +5351,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4679,7 +5359,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4687,13 +5367,21 @@
         <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/xlsx/glancing_angle.xlsx
+++ b/startup/xlsx/glancing_angle.xlsx
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S6" authorId="0">
+    <comment ref="R6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,6 +110,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="W6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -146,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S6" authorId="0">
+    <comment ref="R6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,6 +216,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="W6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -238,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S6" authorId="0">
+    <comment ref="R6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -294,12 +322,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="W6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Default values for the motor parameters are NOT used. Specify motor positions explicitly in the cells below
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="76">
   <si>
     <t xml:space="preserve">Glancing angle</t>
   </si>
@@ -307,21 +349,18 @@
     <t xml:space="preserve">Experimenters:</t>
   </si>
   <si>
-    <t xml:space="preserve">Change edge at start?</t>
+    <t xml:space="preserve">Close shutter at end?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add element to filename?</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
   </si>
   <si>
-    <t xml:space="preserve">Close shutter at end?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add element to filename?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of repetitions</t>
   </si>
   <si>
@@ -401,6 +440,9 @@
   </si>
   <si>
     <t xml:space="preserve">Integration times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detector X</t>
   </si>
   <si>
     <t xml:space="preserve">Alignment method</t>
@@ -439,10 +481,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Slit height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detector X</t>
+    <t xml:space="preserve">Slit width (absolute width, mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slit height (absolute height, mm)</t>
   </si>
   <si>
     <t xml:space="preserve">snapshots</t>
@@ -554,6 +596,9 @@
   </si>
   <si>
     <t xml:space="preserve">added orientation and retraction distance to glancing angle spreadsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add columns for sample X/Y + slit W/H to all spreadsheet types, also remove “Change edge at start?” + deprecate e0 column + deprecate single wheel spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -676,7 +721,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -878,6 +923,17 @@
       <diagonal/>
     </border>
     <border diagonalUp="true" diagonalDown="true">
+      <left style="thin"/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal style="medium"/>
+    </border>
+    <border diagonalUp="true" diagonalDown="true">
       <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -927,7 +983,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1128,11 +1184,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1148,7 +1208,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1184,6 +1244,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1206,6 +1270,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1287,13 +1355,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>160560</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1306,8 +1374,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4312800"/>
-          <a:ext cx="2746800" cy="2523960"/>
+          <a:off x="0" y="4313160"/>
+          <a:ext cx="2748600" cy="2522520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1328,9 +1396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1925280</xdr:colOff>
+      <xdr:colOff>1923840</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1339,8 +1407,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3558240" y="4434480"/>
-          <a:ext cx="7985160" cy="2238480"/>
+          <a:off x="3561120" y="4434480"/>
+          <a:ext cx="7990560" cy="2237040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1417,16 +1485,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>2. Orientation (cell G3): para = sample surface parallel to X-ray electric vector / perp = </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>perpendicular</a:t>
+            <a:t>2. Orientation (cell G3): para = sample surface parallel to X-ray electric vector / perp = perpendicular</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1502,7 +1561,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Specify pitch and y motor positions and the method for finding them in columns R, S, T</a:t>
+            <a:t>6. Specify pitch and y motor positions and the method for finding them in columns S, T, U</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1521,7 +1580,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. If column R is “Manual”, columns S and T </a:t>
+            <a:t>7. If column S is “Manual”, columns T and U </a:t>
           </a:r>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -1558,7 +1617,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>8. Specify detector position in column U, blank means to </a:t>
+            <a:t>8. Specify detector position in column R, blank means to </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -1614,7 +1673,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>10. Do not add columns before column AE</a:t>
+            <a:t>10. Do not add columns before column AG</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1638,9 +1697,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>160560</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1654,7 +1713,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2746800" cy="2523960"/>
+          <a:ext cx="2748600" cy="2522520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1668,16 +1727,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1255680</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:colOff>1698480</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1686,8 +1745,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2888640" y="4192920"/>
-          <a:ext cx="7985160" cy="2238480"/>
+          <a:off x="3335760" y="4371840"/>
+          <a:ext cx="7990560" cy="2237040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1764,16 +1823,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>2. Orientation (cell G3): para = sample surface parallel to X-ray electric vector / perp = </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>perpendicular</a:t>
+            <a:t>2. Orientation (cell G3): para = sample surface parallel to X-ray electric vector / perp = perpendicular</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1849,7 +1899,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Specify pitch and y motor positions and the method for finding them in columns R, S, T</a:t>
+            <a:t>6. Specify pitch and y motor positions and the method for finding them in columns S, T, U</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1868,7 +1918,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. If column R is “Manual”, columns S and T </a:t>
+            <a:t>7. If column S is “Manual”, columns T and U </a:t>
           </a:r>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -1905,7 +1955,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>8. Specify detector position in column U, blank means to </a:t>
+            <a:t>8. Specify detector position in column R, blank means to </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -1961,7 +2011,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>10. Do not add columns before column AE</a:t>
+            <a:t>10. Do not add columns before column AG</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1985,9 +2035,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>160560</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2001,7 +2051,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4181760"/>
-          <a:ext cx="2746800" cy="2523960"/>
+          <a:ext cx="2748600" cy="2522520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2016,15 +2066,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>678600</xdr:colOff>
+      <xdr:colOff>707400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1630440</xdr:colOff>
+      <xdr:colOff>1658160</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2033,8 +2083,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3263400" y="4296600"/>
-          <a:ext cx="7985160" cy="2238480"/>
+          <a:off x="3295440" y="4327560"/>
+          <a:ext cx="7990560" cy="2237040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2073,17 +2123,7 @@
               <a:uFillTx/>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>Instructio</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>ns:</a:t>
+            <a:t>Instructions:</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2102,52 +2142,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>1. Add the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>names of all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>team </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>members to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>the green </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>box in row 1</a:t>
+            <a:t>1. Add the names of all team members to the green box in row 1</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2166,106 +2161,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>Orientation </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>(cell G3): </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>para = </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>sample </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>surface </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parallel to X-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>ray electric </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>vector / </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>perp = </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>perpendicul</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>ar</a:t>
+            <a:t>2. Orientation (cell G3): para = sample surface parallel to X-ray electric vector / perp = perpendicular</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2284,43 +2180,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>3. Default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>values for </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parameters </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>go in line 6</a:t>
+            <a:t>3. Default values for all parameters go in line 6</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2339,43 +2199,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>4. Sample-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>specific </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>parameters </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>are entered </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>in rows 7+</a:t>
+            <a:t>4. Sample-specific parameters are entered in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2394,61 +2218,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>values from </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>line 6 will be </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>used for all </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>cells left </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>rows 7+</a:t>
+            <a:t>5. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2467,79 +2237,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Specify </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>pitch and y </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>motor </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>positions </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>and the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>method for </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>finding them </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>in columns </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>R, S, T</a:t>
+            <a:t>6. Specify pitch and y motor positions and the method for finding them in columns S, T, U</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2558,43 +2256,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. If column </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>R is </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>“Manual”, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>columns S </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>and T </a:t>
+            <a:t>7. If column S is “Manual”, columns T and U </a:t>
           </a:r>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -2612,16 +2274,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>be filled in</a:t>
+            <a:t> be filled in</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2640,52 +2293,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>8. Specify </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>detector </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>position in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>column U, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>blank </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>means to </a:t>
+            <a:t>8. Specify detector position in column R, blank means to </a:t>
           </a:r>
           <a:r>
             <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
@@ -2703,16 +2311,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>detector</a:t>
+            <a:t> detector</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2731,25 +2330,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>9. Do not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>add rows </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>above row 7</a:t>
+            <a:t>9. Do not add rows above row 7</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2768,43 +2349,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>10. Do not </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>add </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>columns </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>before </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t>column AE</a:t>
+            <a:t>10. Do not add columns before column AG</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2822,17 +2367,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AE38"/>
+  <dimension ref="B1:AF38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2844,14 +2389,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="23" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="24" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2886,35 +2431,29 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 12</v>
+        <v>Version: 13</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="N2" s="10" t="n">
         <v>1</v>
@@ -2926,22 +2465,23 @@
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="0"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="12"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
-      <c r="AB2" s="12"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
@@ -2949,7 +2489,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="16"/>
       <c r="M3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" s="10" t="n">
         <v>10</v>
@@ -2961,26 +2501,27 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="0"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="12"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
-      <c r="AB3" s="12"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -2988,126 +2529,130 @@
         <v>0</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
-      <c r="W4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
       <c r="AA4" s="21"/>
       <c r="AB4" s="21"/>
-      <c r="AC4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD4" s="22"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="H5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="J5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="K5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="L5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="M5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="N5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="O5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="P5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="R5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="S5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="T5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="25" t="str">
+      <c r="U5" s="25" t="str">
         <f aca="false">IF(G3="para","Sample y abs. pos. (mm)","Sample x abs. pos. (mm)")</f>
         <v>Sample y abs. pos. (mm)</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="V5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="W5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="W5" s="24" t="s">
+      <c r="X5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="X5" s="23" t="s">
+      <c r="Y5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="23" t="s">
+      <c r="Z5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="23" t="s">
+      <c r="AA5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA5" s="23" t="s">
+      <c r="AB5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AB5" s="29" t="s">
+      <c r="AC5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AC5" s="27" t="s">
+      <c r="AD5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AD5" s="34" t="s">
+      <c r="AE5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" s="34" t="s">
+      <c r="AF5" s="34" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3116,7 +2661,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>48</v>
@@ -3128,7 +2673,7 @@
         <v>49</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" s="41" t="s">
         <v>50</v>
@@ -3160,375 +2705,383 @@
       <c r="Q6" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="50" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="52" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
       <c r="X6" s="53" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="53" t="n">
+      <c r="Y6" s="54" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="54" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="53" t="n">
+      <c r="AA6" s="54" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="53" t="n">
+      <c r="AB6" s="54" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AB6" s="54" t="n">
+      <c r="AC6" s="55" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="49"/>
+      <c r="AD6" s="56"/>
       <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="56" t="n">
+      <c r="B7" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="58"/>
+      <c r="C7" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="59"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="62"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="63"/>
       <c r="P7" s="35"/>
-      <c r="Q7" s="63"/>
-      <c r="T7" s="11"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="65"/>
       <c r="U7" s="11"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="68"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="70"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="56" t="n">
+      <c r="B8" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="58"/>
+      <c r="C8" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="59"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="62"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="63"/>
       <c r="P8" s="35"/>
-      <c r="Q8" s="63"/>
-      <c r="T8" s="11"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="65"/>
       <c r="U8" s="11"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="68"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="70"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="56" t="n">
+      <c r="B9" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="57" t="s">
-        <v>5</v>
+      <c r="C9" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="62"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="63"/>
       <c r="P9" s="35"/>
-      <c r="Q9" s="63"/>
-      <c r="T9" s="11"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="65"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="68"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="70"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="56" t="n">
+      <c r="B10" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="57" t="s">
-        <v>5</v>
+      <c r="C10" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="62"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="63"/>
       <c r="P10" s="35"/>
-      <c r="Q10" s="63"/>
-      <c r="T10" s="11"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="65"/>
       <c r="U10" s="11"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="68"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="70"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="56" t="n">
+      <c r="B11" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="57" t="s">
-        <v>5</v>
+      <c r="C11" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="62"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="35"/>
-      <c r="Q11" s="63"/>
-      <c r="T11" s="11"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="65"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="68"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="70"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="56" t="n">
+      <c r="B12" s="57" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="57" t="s">
-        <v>5</v>
+      <c r="C12" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="62"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="63"/>
       <c r="P12" s="35"/>
-      <c r="Q12" s="63"/>
-      <c r="T12" s="11"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="65"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="68"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="70"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="56" t="n">
+      <c r="B13" s="57" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="57" t="s">
-        <v>5</v>
+      <c r="C13" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="62"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="63"/>
       <c r="P13" s="35"/>
-      <c r="Q13" s="63"/>
-      <c r="T13" s="11"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="65"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="68"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="70"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="56" t="n">
+      <c r="B14" s="57" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="57" t="s">
-        <v>5</v>
+      <c r="C14" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="62"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="63"/>
       <c r="P14" s="35"/>
-      <c r="Q14" s="63"/>
-      <c r="T14" s="11"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="65"/>
       <c r="U14" s="11"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="68"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="70"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="56"/>
+      <c r="B15" s="57"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="56"/>
+      <c r="B17" s="57"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="56"/>
+      <c r="B18" s="57"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="56"/>
+      <c r="B19" s="57"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="56"/>
+      <c r="B20" s="57"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="56"/>
+      <c r="B21" s="57"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="56"/>
+      <c r="B22" s="57"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="56"/>
+      <c r="B23" s="57"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="56"/>
+      <c r="B24" s="57"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="56"/>
+      <c r="B25" s="57"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="56"/>
+      <c r="B26" s="57"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="56"/>
+      <c r="B27" s="57"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="56"/>
+      <c r="B28" s="57"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="56"/>
+      <c r="B29" s="57"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="56"/>
+      <c r="B30" s="57"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="56"/>
+      <c r="B31" s="57"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="56"/>
+      <c r="B32" s="57"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="56"/>
+      <c r="B33" s="57"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="56"/>
+      <c r="B34" s="57"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="56"/>
+      <c r="B35" s="57"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="56"/>
+      <c r="B36" s="57"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="56"/>
+      <c r="B37" s="57"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="56"/>
+      <c r="B38" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AB1"/>
+    <mergeCell ref="E1:AC1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C4:D4"/>
@@ -3536,12 +3089,12 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="X4:AC4"/>
+    <mergeCell ref="AD4:AF4"/>
   </mergeCells>
-  <dataValidations count="17">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+  <dataValidations count="18">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X7:AC14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3557,7 +3110,7 @@
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3585,29 +3138,33 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6:U6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X6:AC6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD6:AF6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:V14 S7:U14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T7:W14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:S14" type="list">
       <formula1>"Manual,Automatic"</formula1>
       <formula2>150</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G3" type="list">
       <formula1>"para,perp"</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:W6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3627,17 +3184,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AE38"/>
+  <dimension ref="B1:AF38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -3649,14 +3206,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="23" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="24" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3691,35 +3248,29 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 12</v>
+        <v>Version: 13</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="N2" s="10" t="n">
         <v>1</v>
@@ -3731,22 +3282,23 @@
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="0"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="12"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
-      <c r="AB2" s="12"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
@@ -3754,7 +3306,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="16"/>
       <c r="M3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" s="10" t="n">
         <v>10</v>
@@ -3766,26 +3318,27 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="0"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="12"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
-      <c r="AB3" s="12"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -3793,126 +3346,130 @@
         <v>0</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
-      <c r="W4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
       <c r="AA4" s="21"/>
       <c r="AB4" s="21"/>
-      <c r="AC4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD4" s="22"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="H5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="J5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="K5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="L5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="M5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="N5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="O5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="P5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="R5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="S5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="T5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="25" t="str">
+      <c r="U5" s="25" t="str">
         <f aca="false">IF(G3="para","Sample y abs. pos. (mm)","Sample x abs. pos. (mm)")</f>
         <v>Sample y abs. pos. (mm)</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="V5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="W5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="W5" s="24" t="s">
+      <c r="X5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="X5" s="23" t="s">
+      <c r="Y5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="23" t="s">
+      <c r="Z5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="23" t="s">
+      <c r="AA5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA5" s="23" t="s">
+      <c r="AB5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AB5" s="29" t="s">
+      <c r="AC5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AC5" s="27" t="s">
+      <c r="AD5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AD5" s="34" t="s">
+      <c r="AE5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" s="34" t="s">
+      <c r="AF5" s="34" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3921,7 +3478,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>48</v>
@@ -3933,7 +3490,7 @@
         <v>49</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" s="41" t="s">
         <v>50</v>
@@ -3965,375 +3522,383 @@
       <c r="Q6" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="50" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="52" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
       <c r="X6" s="53" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="53" t="n">
+      <c r="Y6" s="54" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="54" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="53" t="n">
+      <c r="AA6" s="54" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="53" t="n">
+      <c r="AB6" s="54" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AB6" s="54" t="n">
+      <c r="AC6" s="55" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="49"/>
+      <c r="AD6" s="56"/>
       <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="56" t="n">
+      <c r="B7" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="58"/>
+      <c r="C7" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="59"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="62"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="63"/>
       <c r="P7" s="35"/>
-      <c r="Q7" s="63"/>
-      <c r="T7" s="11"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="65"/>
       <c r="U7" s="11"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="68"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="70"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="56" t="n">
+      <c r="B8" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="58"/>
+      <c r="C8" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="59"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="62"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="63"/>
       <c r="P8" s="35"/>
-      <c r="Q8" s="63"/>
-      <c r="T8" s="11"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="65"/>
       <c r="U8" s="11"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="68"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="70"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="56" t="n">
+      <c r="B9" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="57" t="s">
-        <v>5</v>
+      <c r="C9" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="62"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="63"/>
       <c r="P9" s="35"/>
-      <c r="Q9" s="63"/>
-      <c r="T9" s="11"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="65"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="68"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="70"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="56" t="n">
+      <c r="B10" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="57" t="s">
-        <v>5</v>
+      <c r="C10" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="62"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="63"/>
       <c r="P10" s="35"/>
-      <c r="Q10" s="63"/>
-      <c r="T10" s="11"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="65"/>
       <c r="U10" s="11"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="68"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="70"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="56" t="n">
+      <c r="B11" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="57" t="s">
-        <v>5</v>
+      <c r="C11" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="62"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="35"/>
-      <c r="Q11" s="63"/>
-      <c r="T11" s="11"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="65"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="68"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="70"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="56" t="n">
+      <c r="B12" s="57" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="57" t="s">
-        <v>5</v>
+      <c r="C12" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="62"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="63"/>
       <c r="P12" s="35"/>
-      <c r="Q12" s="63"/>
-      <c r="T12" s="11"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="65"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="68"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="70"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="56" t="n">
+      <c r="B13" s="57" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="57" t="s">
-        <v>5</v>
+      <c r="C13" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="62"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="63"/>
       <c r="P13" s="35"/>
-      <c r="Q13" s="63"/>
-      <c r="T13" s="11"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="65"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="68"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="70"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="56" t="n">
+      <c r="B14" s="57" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="57" t="s">
-        <v>5</v>
+      <c r="C14" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="62"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="63"/>
       <c r="P14" s="35"/>
-      <c r="Q14" s="63"/>
-      <c r="T14" s="11"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="65"/>
       <c r="U14" s="11"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="68"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="70"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="56"/>
+      <c r="B15" s="57"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="56"/>
+      <c r="B17" s="57"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="56"/>
+      <c r="B18" s="57"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="56"/>
+      <c r="B19" s="57"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="56"/>
+      <c r="B20" s="57"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="56"/>
+      <c r="B21" s="57"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="56"/>
+      <c r="B22" s="57"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="56"/>
+      <c r="B23" s="57"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="56"/>
+      <c r="B24" s="57"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="56"/>
+      <c r="B25" s="57"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="56"/>
+      <c r="B26" s="57"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="56"/>
+      <c r="B27" s="57"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="56"/>
+      <c r="B28" s="57"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="56"/>
+      <c r="B29" s="57"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="56"/>
+      <c r="B30" s="57"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="56"/>
+      <c r="B31" s="57"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="56"/>
+      <c r="B32" s="57"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="56"/>
+      <c r="B33" s="57"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="56"/>
+      <c r="B34" s="57"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="56"/>
+      <c r="B35" s="57"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="56"/>
+      <c r="B36" s="57"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="56"/>
+      <c r="B37" s="57"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="56"/>
+      <c r="B38" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AB1"/>
+    <mergeCell ref="E1:AC1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C4:D4"/>
@@ -4341,12 +3906,12 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="X4:AC4"/>
+    <mergeCell ref="AD4:AF4"/>
   </mergeCells>
-  <dataValidations count="18">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+  <dataValidations count="19">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X7:AC14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4362,7 +3927,7 @@
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4390,33 +3955,37 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6:U6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X6:AC6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD6:AF6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:S14" type="list">
       <formula1>"Manual,Automatic"</formula1>
       <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:V14" type="none">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G3" type="list">
       <formula1>"para,perp"</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:W6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7:W14" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4436,17 +4005,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AE38"/>
+  <dimension ref="B1:AF38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -4458,14 +4027,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="23" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="24" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4500,35 +4069,29 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="str">
         <f aca="false">_xlfn.CONCAT("Version: ",'Version history'!A3)</f>
-        <v>Version: 12</v>
+        <v>Version: 13</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="N2" s="10" t="n">
         <v>1</v>
@@ -4540,22 +4103,23 @@
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="0"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="12"/>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
-      <c r="AB2" s="12"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
@@ -4563,7 +4127,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="16"/>
       <c r="M3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" s="10" t="n">
         <v>10</v>
@@ -4575,26 +4139,27 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="0"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="12"/>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
-      <c r="AB3" s="12"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -4602,126 +4167,130 @@
         <v>0</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
-      <c r="W4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
       <c r="AA4" s="21"/>
       <c r="AB4" s="21"/>
-      <c r="AC4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD4" s="22"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="H5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="J5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="K5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="L5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="M5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="N5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="O5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="P5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="R5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="S5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="T5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="25" t="str">
+      <c r="U5" s="25" t="str">
         <f aca="false">IF(G3="para","Sample y abs. pos. (mm)","Sample x abs. pos. (mm)")</f>
         <v>Sample y abs. pos. (mm)</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="V5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="W5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="W5" s="24" t="s">
+      <c r="X5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="X5" s="23" t="s">
+      <c r="Y5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="23" t="s">
+      <c r="Z5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="23" t="s">
+      <c r="AA5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA5" s="23" t="s">
+      <c r="AB5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AB5" s="29" t="s">
+      <c r="AC5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AC5" s="27" t="s">
+      <c r="AD5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AD5" s="34" t="s">
+      <c r="AE5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" s="34" t="s">
+      <c r="AF5" s="34" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4730,7 +4299,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>48</v>
@@ -4742,7 +4311,7 @@
         <v>49</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" s="41" t="s">
         <v>50</v>
@@ -4774,375 +4343,383 @@
       <c r="Q6" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="50" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="52" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
       <c r="X6" s="53" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="53" t="n">
+      <c r="Y6" s="54" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="54" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="53" t="n">
+      <c r="AA6" s="54" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="53" t="n">
+      <c r="AB6" s="54" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="AB6" s="54" t="n">
+      <c r="AC6" s="55" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="49"/>
+      <c r="AD6" s="56"/>
       <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="56" t="n">
+      <c r="B7" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="58"/>
+      <c r="C7" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="59"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="62"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="63"/>
       <c r="P7" s="35"/>
-      <c r="Q7" s="63"/>
-      <c r="T7" s="11"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="65"/>
       <c r="U7" s="11"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="68"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="70"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="56" t="n">
+      <c r="B8" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="58"/>
+      <c r="C8" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="59"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="62"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="63"/>
       <c r="P8" s="35"/>
-      <c r="Q8" s="63"/>
-      <c r="T8" s="11"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="65"/>
       <c r="U8" s="11"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="68"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="70"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="56" t="n">
+      <c r="B9" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="57" t="s">
-        <v>5</v>
+      <c r="C9" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="62"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="63"/>
       <c r="P9" s="35"/>
-      <c r="Q9" s="63"/>
-      <c r="T9" s="11"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="65"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="68"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="70"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="56" t="n">
+      <c r="B10" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="57" t="s">
-        <v>5</v>
+      <c r="C10" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="62"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="63"/>
       <c r="P10" s="35"/>
-      <c r="Q10" s="63"/>
-      <c r="T10" s="11"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="65"/>
       <c r="U10" s="11"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="68"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="70"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="56" t="n">
+      <c r="B11" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="57" t="s">
-        <v>5</v>
+      <c r="C11" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="62"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="35"/>
-      <c r="Q11" s="63"/>
-      <c r="T11" s="11"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="65"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="68"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="70"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="56" t="n">
+      <c r="B12" s="57" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="57" t="s">
-        <v>5</v>
+      <c r="C12" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="62"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="63"/>
       <c r="P12" s="35"/>
-      <c r="Q12" s="63"/>
-      <c r="T12" s="11"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="65"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="68"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="70"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="56" t="n">
+      <c r="B13" s="57" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="57" t="s">
-        <v>5</v>
+      <c r="C13" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="62"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="63"/>
       <c r="P13" s="35"/>
-      <c r="Q13" s="63"/>
-      <c r="T13" s="11"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="65"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="68"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="70"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="56" t="n">
+      <c r="B14" s="57" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="57" t="s">
-        <v>5</v>
+      <c r="C14" s="58" t="s">
+        <v>3</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="62"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="63"/>
       <c r="P14" s="35"/>
-      <c r="Q14" s="63"/>
-      <c r="T14" s="11"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="65"/>
       <c r="U14" s="11"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="68"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="70"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="56"/>
+      <c r="B15" s="57"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="56"/>
+      <c r="B17" s="57"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="56"/>
+      <c r="B18" s="57"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="56"/>
+      <c r="B19" s="57"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="56"/>
+      <c r="B20" s="57"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="56"/>
+      <c r="B21" s="57"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="56"/>
+      <c r="B22" s="57"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="56"/>
+      <c r="B23" s="57"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="56"/>
+      <c r="B24" s="57"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="56"/>
+      <c r="B25" s="57"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="56"/>
+      <c r="B26" s="57"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="56"/>
+      <c r="B27" s="57"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="56"/>
+      <c r="B28" s="57"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="56"/>
+      <c r="B29" s="57"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="56"/>
+      <c r="B30" s="57"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="56"/>
+      <c r="B31" s="57"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="56"/>
+      <c r="B32" s="57"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="56"/>
+      <c r="B33" s="57"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="56"/>
+      <c r="B34" s="57"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="56"/>
+      <c r="B35" s="57"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="56"/>
+      <c r="B36" s="57"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="56"/>
+      <c r="B37" s="57"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="56"/>
+      <c r="B38" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:AB1"/>
+    <mergeCell ref="E1:AC1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C4:D4"/>
@@ -5150,12 +4727,12 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="X4:AC4"/>
+    <mergeCell ref="AD4:AF4"/>
   </mergeCells>
-  <dataValidations count="17">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:AB14" type="list">
+  <dataValidations count="18">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X7:AC14" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5171,7 +4748,7 @@
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C14 G6:G14" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2 C6:C14 G6:G14" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5199,29 +4776,33 @@
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:U6" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6:U6" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W6:AB6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X6:AC6" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC6:AE6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD6:AF6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:V14 S7:U14" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6 T7:W14" type="none">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R14" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:S14" type="list">
       <formula1>"Manual,Automatic"</formula1>
       <formula2>150</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G3" type="list">
       <formula1>"para,perp"</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="V6:W6" type="none">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5241,19 +4822,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
   </cols>
   <sheetData>
-    <row r="1" s="69" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="71" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
         <v>60</v>
       </c>
@@ -5262,23 +4843,23 @@
       <c r="A2" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="71"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="n">
-        <v>12</v>
-      </c>
-      <c r="B3" s="69"/>
+        <v>13</v>
+      </c>
+      <c r="B3" s="71"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34"/>
-      <c r="B4" s="69"/>
+      <c r="B4" s="71"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="71" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5376,6 +4957,14 @@
       </c>
       <c r="B17" s="0" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
